--- a/data/hotels_by_city/Dallas/Dallas_shard_148.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_148.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="582">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>CptJackDewey</t>
+  </si>
+  <si>
     <t>06/07/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>The staff couldn't have been nicer or more helpful. The hotel in general is  well maintained but the decor a bit dated. We  rented 2 suites and  found that although they  had microwaves  and small fridges, there  was no silverware, corkscrew , bottle opener  or even glasses. So I'm not sure why they  have the microwave  or fridge. We were hosting a  small celebration after a  bowl victory and  had to improvise. . The  hotel  does not  offer a  free breakfast. They have the  BIstro, which in this case a cross between a Starbucks and a snack bar. The food is airline quality.More</t>
   </si>
   <si>
+    <t>capierce23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r531234637-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>We had a room block for my son's wedding. The rooms are very clean and comfortable and the staff is excellent. The courtyard area by the pool was a great meeting place and allowed people to meet and relax between events. The bistro is perfect for a quick drink or bite but the area that this hotel is located in is amazing. So many restaurants within walking distance and bike rentals and trails right across the road. We had many compliments from our friends and family on choosing this location!More</t>
   </si>
   <si>
+    <t>Jim W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r509716698-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
     <t>Comfortable, quiet, clean room located in a central part of the city near TCU.  It was adequate for my needs and every place I needed to go was easily accessible.   I thought the hotel property itself was a little plain and the room price was a little too expensive for what was offered. That said, the bed was comfortable and the place met my need for a safe, comfortable place to spend a night and to serve as my home base for the next day in town.More</t>
   </si>
   <si>
+    <t>Brian S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r501700327-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -267,6 +279,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Judeisa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r497387528-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -285,6 +300,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>trang2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r493907746-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -303,6 +321,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>leroyk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r489748239-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -321,6 +342,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>andetherunner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r485917779-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -336,6 +360,9 @@
     <t>We stayed one night. Great location. No surprises, unpleasant or otherwise. Clean room. Beds were great. Did not eat at Bistro so unable to comment. Friendly front desk staff who warned us about tornado watch and helpfully identified safe spots in hotel. We will definitely return next time we are in Fort Worth.</t>
   </si>
   <si>
+    <t>BamaGirl1972</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r478550874-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -351,6 +378,9 @@
     <t>Due to some scheduling conflicts, we needed to extend our stay in the area by another day and asked for a late check out.  The front desk said no problem and took care of us.  Myzgell and Mary were very accommodating and even offered us free appetizers to the restaurant next door.  They were great!  I'd strongly suggest this hotel because it's close to TCU, the Ft Worth Zoo, Will Rogers Auditorium, Muueums, etc. Great location!  The rooms were clean as well.</t>
   </si>
   <si>
+    <t>Kriss</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r475509259-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -372,6 +402,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Katherine P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r471783492-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -387,6 +420,9 @@
     <t xml:space="preserve">Location is near TCU, is also walking distance to several restaurants and shops and driving distance to downtown Fort Worth.  Staff is very friendly.   Rooms are nice, where first floor rooms open to the outside Courtyard.   Hotel has your typical Bistro and bar.  </t>
   </si>
   <si>
+    <t>cordobatim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r470917806-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -411,6 +447,9 @@
     <t>This is an older hotel. Strange to have a room with just one queen bed, but I guess that's all that would fit.Location is good for visiting TCU, which we were.Room was quite noisy, from next-door neighbors to a dog tied to a pole in the parking lot to cleaning staff calling to one another early on a Saturday morning. (And banging on our door at 9 a.m. on the Saturday that we were scheduled to check out; what's with that?)I don't normally stay with this chain. Nothing about this stay would make me change my mind.More</t>
   </si>
   <si>
+    <t>Frank N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r463060418-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -438,6 +477,9 @@
     <t>Clean, in good repair with a very friendly staff.  We got a good nights sleep in a quiet room.  The bistro in the lobby offers a selection of institutional food and Starbucks coffee It is unusual for a hotel of this type to not at least offer guests free morning coffee in the lobby Apparently the standard undrinkable coffee and coffeemaker in the room is supposed to suffice More</t>
   </si>
   <si>
+    <t>Ashley C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r454822888-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -459,6 +501,9 @@
     <t>Our group of 6 total (3 rooms) stayed in this hotel during our time attending the Fort Worth Stock Show &amp; Rodeo. Check-in was OK, the girl was a little confused that the rooms were all being checked in to at different times but she got it figured out. They do place a hold on your card for the hotel plus the "bistro" expenses which totals to about $70 above the hotel cost. They said the extra amount held was if you wanted to charge your purchases at the bistro to your room instead of paying for them at the time of service? The bistro is nice in and of itself, drinks were good, but the poor girl working it was by herself and it took FOREVER to get any food because she was working alone. Also it was very expensive!Location is great, within less than 5 miles from the stock show grounds. There are several restaurants within walking distance, as well as gas stations and other things like shopping.The room was very nice. We had a king bed. It was a clean room and the bathroom was nice.Overall, I would definitely stay again and would recommend this hotel. More</t>
   </si>
   <si>
+    <t>hillary210</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r453476521-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -483,6 +528,9 @@
     <t>When I arrived, I was told I would have to lug my suitcases up stairs. I then found out there was an elevator that was so far away... it was ridiculous. I was also approached to not have maid service for more points(?). They must be short staffed. The third day I was staying here, I went to the bistro and stood there over 15 minutes with the girl not a acknowledging my presence. I then went to the check in desk and then was ignored. I ended up ordering pizza from an outside company. Poor service. Rooms were "ok" no hot water for sink. Shower was fine. I will never return. Too many places to stay. More</t>
   </si>
   <si>
+    <t>Russell H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r439589088-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -504,6 +552,9 @@
     <t>We were in town for our daughter to tour TCU and stayed here because of its convenient location and "Courtyard" level of service.  We were not disappointed.  The property is clean, updated and well maintained.  The staff is super friendly, courteous and professional.  If you have stayed at a Courtyard, you know what to expect in general, but some are better than others.  This one rates very good in our opinion. As usual, there is no dining room per say, but there is a lounge area where you can eat or drink and a limited menu from which to order either from your room or at the bar.  While there is a work out room, you can also take a walk  or run along the Clear Fork Trinity River right across the street.  You can also have a great meal next door at the Hoffbrau Steaks restaurant (ask for a dessert coupon from the front desk) or grab a sandwich at Panera Bread, also next door.More</t>
   </si>
   <si>
+    <t>woozel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r427591992-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -531,6 +582,9 @@
     <t>As far as courtyard hotels, I found this one pretty average. There's only two floors, but it's quiet enough that you don't need higher floors to get away from noise. It seemed a little dated in the rooms, but it was comfortable. There's a couple of restaurants close by, but you really have to drive to get anywhere. The staff at the bistro was friendly and helpful. This is the first courtyard where I was not offered points, an amenity, or free coffee upon arrival as a platinum member.More</t>
   </si>
   <si>
+    <t>pes7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r392279137-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -558,6 +612,9 @@
     <t>Reserved a room here due to a visit to the TCU campus. Not only was it very convenient for that, but the hotel is directly across a quiet street from the Trinity Trail system. Loved that feature as it made morning runs so easy. The hotel itself is a typical Courtyard. The room was relatively small and as the hotel was completely booked, moving to another room wasn't possible. Rooms were clean. The A/C system was quite good keeping the room a nice temperature even on a scorching hot day. Would hope for a better room were I to return to this hotel.More</t>
   </si>
   <si>
+    <t>utex99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r391298510-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -582,6 +639,9 @@
     <t>I stayed at this hotel for a conference being held on the campus of TCU in early July for 4 nights.  I am not a picky person and was very satisfied with my stay.  I stayed at this location because of its proximity to the TCU campus.  I didn't have any complaints at all. It was very easy to get to campus.  There are many restaurants nearby within walking distance.  I would recommend this hotel if you have anything going on near the TCU campus or visiting the the Fort Worth Zoo/Cultural District area.More</t>
   </si>
   <si>
+    <t>Lori B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r387011760-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -603,6 +663,9 @@
     <t>Loved this hotel for our recent visit to TCU. 5 min from campus. Great restaurants close by and easy parking. Starbucks in the lobby along with a lot of great food choices at a walk up counter. Huge, brightly colored lobby with a big tv for sports watching. Nice pool and workout facility. This hotel has everything you need...just like all Courtyards. More</t>
   </si>
   <si>
+    <t>MicheleVaudt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r348959299-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -630,6 +693,9 @@
     <t>Awesome hotel.  The entire  staff was friendly and accommodating.  The breakfast was tasty and quick!  It is very clean.  The hotel is steps away from a small river walk where we ran in the morning.  You could walk to TCU but we chose to take Uber.  The hotel is easy to get to but the front door is not on a busy road which is nice!More</t>
   </si>
   <si>
+    <t>Debbie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r340460986-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -648,6 +714,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Raven_072</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r338293892-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -666,6 +735,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>cfan2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r321971873-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -684,6 +756,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Born2discover</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r321485415-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -702,6 +777,9 @@
     <t>I stayed here for a week when in town visiting TCU.  This hotel was a nice, basic hotel.  Although there was hair in the sink upon arrival, the rest of my room was very clean.  I told the front desk staff about hair in the sink and it was cleaned before I returned to my room.  The bed was SUPER comfortable!  The restaurant/bar was your typical overpriced hotel food, but was had good food and a variety of drinks.  This hotel is across the street from WoodShed, a wonderful restaurant, and a bike/running path with bike rentals.  My room was quiet and comfortable.  The A/C was quite noisy, however, but I didn't mind.  There is now an elevator which is nice for luggage.  I'd stay here again, for sure.More</t>
   </si>
   <si>
+    <t>TsaLaGi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r319422256-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -717,6 +795,9 @@
     <t>This is a very nice courtyard in a great location. Just down the street dining varies from pancakes to a brewpub steakhouse. The hotel's staff was friendly. Make sure if you have any mobility issues you let them know, as some rooms are a good way from the elevator. A nice Courtyard.</t>
   </si>
   <si>
+    <t>travelspady</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r313675389-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -735,6 +816,9 @@
     <t>I'm not quite sure what the marriott properties are up to, but I'm finding my stays more and more enjoyable, especially at this hotel.  I recently stayed here on business and could not have been more pleased. From the excellent food at the bistro for a late snack, to Mary helping me with directions to the Stockyard, Kari assisting me with shipping a pkg, to James helping me get a cab for the next day, every single person at this hotel greets you with a smile. Sure one is used to service like this at a ritz Carlton, but the service here matches any five star property.  Friendly, good location, clean and comfy.  Stay here and enjoy the hospitality :) More</t>
   </si>
   <si>
+    <t>UFTAMU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r307810601-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -753,6 +837,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Jackie W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r293761261-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -771,6 +858,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>noelle88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r293124251-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -789,6 +879,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>susanlynne18</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r244057416-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -808,6 +901,9 @@
   </si>
   <si>
     <t>For a short stay business hotel this one did not disappoint. For personal travel I am a 5 star kind of girl. For business I stay where the office puts me. I am so often disappointed , but not this time. The staff were a fine example of southern hospitality. They were polite, helpful and nothing ruffled any of them. They honestly couldn't do enough for me. The lobby is bright and spotless with lots of place to sit and a TV for sports and news. The restaurant is right in the middle of the lobby and was much quieter then I would have imagined. What they call the business centre is three computer stations and printer off the lobby, bright and easy to use no charges! The WiFi worked well. The room was not huge but had all that you could need and was clean with well taken care of furniture. Plenty of electric outlets on the desk, fridge, microwave and coffeemaker. There was a sofa and king bed. The pool was open although too cold to swim even for this northerner. The hotel is right on a  terrific walking/running/biking trail and the small gym had new workout machines.More</t>
+  </si>
+  <si>
+    <t>JSalge05</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r231053834-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
@@ -835,6 +931,9 @@
 The hotel itself is a standard Courtyard layout with the bistro setup in the lobby area.  I stay here a lot, almost every time I go to Fort Worth, and I'm always annoyed that this is a 2 story hotel that doesn't have an elevator.  Because I travel for a living, I've always got a lot of luggage to haul in with me, and it never fails that they always put me...As is the case with most of my stays, the location of the hotel is as important, or more important than the hotel itself.  If I'm rating JUST this hotel, it may be more of a 3/5 rating, but because of the location, I'd definitely put it in the 'very good' category.  I come to Fort Worth to do business at TCU, so if you need a place close to the University, then this is perfect -- you're literally a mile or two away from the school.  In addition, you've got a steakhouse, a Panera Bread and a bunch of other restaurants &amp; shopping a short walk away.  Probably my favorite feature of this area is that the hotel is located on the river, and there is a GREAT trail system that runs along the river -- I like to run, but there are also a ton of cyclists, dog walkers, etc...it's just a nice, scenic, mostly paved, trail along the river that goes for miles and miles.  The hotel itself is a standard Courtyard layout with the bistro setup in the lobby area.  I stay here a lot, almost every time I go to Fort Worth, and I'm always annoyed that this is a 2 story hotel that doesn't have an elevator.  Because I travel for a living, I've always got a lot of luggage to haul in with me, and it never fails that they always put me on the 2nd floor -- of course I always get them to change me to floor 1, but c'mon guys, put an elevator in your hotel, nobody likes to drag their luggage up the stairs!The staff is okay, the check-in process always seems to be a little slower here, there isn't always someone at the front desk, but it's fine, I've had worse experiences for sure.  The rooms are fine, typical of what you'd expect from a Courtyard.  The internet is free.  Overall, I'll continue to stay here because the location is absolutely perfect for what I need.  I'd recommend this hotel to others who need to come to this area of Fort Worth.More</t>
   </si>
   <si>
+    <t>penny79705</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r230369188-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -859,6 +958,9 @@
     <t>Upon arrival what I had ordered on-line was not available. The check in clerk was rude and argumentative. If you have a disability and need an accessible room, do not stay here. Courtyard/Marriott should review current ADA rules governing access for the disabled and comply.More</t>
   </si>
   <si>
+    <t>Malin D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r223166341-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -877,6 +979,9 @@
     <t>Great location on a quiet back street and with easy access to the highway and Fort Worth sites. Rooms are nice and clean with complimentary wifi, fridge and microwave. There's a bistro downstairs with a good selection. There's a gym and a nice pool area. The hotel doesn't have a lift but it's only two floors so we didn't have a problem. The girl who checked us in on the evening of August 18th was super nice and friendly.More</t>
   </si>
   <si>
+    <t>Dottie78704</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r214762362-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -904,6 +1009,9 @@
     <t>We always stay at the Marriot Courtyard when we are in Ft. Worth.  It is absolutely the most convenient place if you are doing the fabulous Ft. Worth Museums or Will Rogers complex. It is lovely, small and usually fully booked so plan ahead!  Staff is wonderful!  A big plus is the Woodshed down the street...if you don't know...it is Tim Love's place...terrific!  Food, drink and music...all good!  We don't stay anyplace else!More</t>
   </si>
   <si>
+    <t>biarritzblue</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r178210868-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -958,6 +1066,9 @@
     <t>Great motel close to the TCU campus.  The rooms are clean and the staff is friendly.  The one downside is that there is no elevator so carrying the luggage up and down the stairs was a bit challenging.  Downstairs is "The Bistro" which serves breakfast and dinner, but the menu is limited and costly.  A bottle of orange juice that costs around a $1 in the grocery store cost $3 at The Bistro.  They do have Starbucks coffee but that menu selection is also limited.  Did experience a problem with check-in and payment since this was a business trip, I was told that it was already paid for but they didn't have the payment on file and even though payment was completed already by the company, I've still got the charges on my credit card.More</t>
   </si>
   <si>
+    <t>EthanPaul</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r165713130-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -982,6 +1093,9 @@
     <t>We loved this hotel!  The lobby was beautifully decorated.  We were able to buy a Starbucks coffee in the lobby to drink while we watched our sons swim in the indoor pool - which was a bit small but certainly met our needs. Our room was fantastic. High ceilings and modern fixtures really impressed.  The only negative was that we could hear the guests above us moving around, but otherwise a flawless stay. Definitely recommend.More</t>
   </si>
   <si>
+    <t>DEBBIE H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r157033069-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1033,6 +1147,9 @@
     <t>This "hotel" is in a nice location near shopping and dining and not too far from TCU.... But it's a little odd. I did NOT read the reviews about no elevator and it just felt like, well, a motel. You check in at the front- cute lobby, but then get in your car, drive to the back and park. The card key worked 25% of the time. We had to have people let us in. When I told Mercedes at the front she let me know that it always works fine for her.  I thought this was an odd response. And after I walked away, as an afterthought, she added- but I'm sorry about that.If I go a great deal on this hotel I would stay again but not at $150 a night. (Which apparently was a lower rate thank usual). Boo, Marriott. Get some elevators by your lobby and get personal. I felt as if I was staying in an apartment complex. The rooms were identical to other courtyards so I wasn't disappointed there.More</t>
   </si>
   <si>
+    <t>TravelingJane22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r154009118-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1060,6 +1177,9 @@
     <t>The reason to stay here is location. It's close to TCU and the Zoo, and there is a surprisingly terrific eatery called The Woodshed just a short walk behind the hotel on the river. But the hotel itself appears to be a renovated motel. The furnishings and decor than Marriott has overlayed are nice enough, but the bones are fairly 1960 and, as has been mentioned, no elevator to the second floor. There is a bistro that serves a nice breakfast and snacks throughout the day. It's fine for a short stay.More</t>
   </si>
   <si>
+    <t>jriley7531</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r153071700-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1084,6 +1204,9 @@
     <t>Well done update with a modern feel.  Colors in the lobby and cafe are very inviting and comfortable.  Don’t expect to get the room you request, as we asked for a ground floor king room on the inside patio for less noise, and was given upstairs room on outside.  They did change us after we asked, but still got outside handi-cap room.  Ugly shower to accommodate wheel-chairs. You are going to hear train whistles anywhere though -- many tracks close-by.  Great location for the Arts District and TCU.More</t>
   </si>
   <si>
+    <t>bathos13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r144568659-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1111,6 +1234,9 @@
     <t>Typical Courtyard. Nice clean rooms, good lobby space, pretty quiet. Great location near the Zoo, Cultural District and TCU. Great running/biking trail along the river is just across the street. Staff was friendly and helpful. The hotel is 2 stories without an elevator, so plan accordingly (we had to switch rooms with my parents due to the stairs - front desk quickly switched us with no problems).More</t>
   </si>
   <si>
+    <t>AM0609</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r143871519-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1138,6 +1264,9 @@
     <t>I stayed at the Courtyard since I have come to enjoy their reasonable prices and comfortable atmosphere for business travel.  This courtyard seems to have been recently updated (I know that the outside of the building was being painted on the day of my departure).  One note:  This hotel does not have an elevator so dragging my large baggage up a flight of stairs was not ideal, but manageable.  The staff when I checked in was happy to help with my questions but when choosing a restaurant to go to in the area, the front desk woman simply pointed to the interactive screen.  Altough I consider myself technically savvy, it would have been more helpful for a few pointers from the employee on where to dine.  Will likely not stay there again because most of my appointments were near the airport and this was too long of a drive to be a central location.More</t>
   </si>
   <si>
+    <t>Kathleen B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r138365957-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1163,6 +1292,9 @@
   </si>
   <si>
     <t>I chose this Courtyard because I like to try to stay in Courtyard by Marriott hotels for a number of reasons.  This one met all of those, actually, so I have no complaint about my stay.  It's been updated like the cityview location but still seems a little old, but I'm not sure why... just the style of the building, I guess.  There is a nice size hotel pool at this location and there isn't a pool at the cityview, although there is a lovely putting green and patio area there.  I will probably stay here again because the location is closer to my daughter's homes but I think that the high mid week prices aren't justified for this particular location.More</t>
+  </si>
+  <si>
+    <t>tonypct</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r135479051-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
@@ -1197,6 +1329,9 @@
 There have been some reviewers complaining about the train noise....I stayed at this hotel for two nights while visiting my son, who lives nearby.  As a business traveler, I stay at many Courtyards and this one met my expectations.  The lobby has been renovated to reflect the new Courtyard motif, and they have added a cafe to now serve dinner, in addition to breakfast.  But as one reviewer already noted, there are plentyof places to eat breakfast, lunch and dinner all within walking distance.This is a convenient location, because of the closeness to restaurants, but also because it is close to TCU and the Fort Worth Zoo.  Being adjacent to the river also means there is a beautiful walking/hiking/biking trail that is easily accessible to those who stay here.Check in was quick and easy.  The room was a typical Courtyard room, with a king size bed that I had requested.  I thought the room was clean and I had no problems with spiders or any other insects in the room.  I did see where there is no elevator in this hotel.  This is only the second Courtyard where I've stayed without an elevator; the other being in Atlanta.  So if you are traveling with a lot of luggage, or you or someone else in your party needs access to an elevator, you should ask for a room on the first floor, or choose somewhere else to stay.There have been some reviewers complaining about the train noise.  Yes, this property is located very close to a major train yard with trains coming and going 24/7.  And as required by law, they must blow their whistles when they are coming up on a traffic crossing.  But my room faced the interior courtyard and with my air conditioner going, I never heard any train noise or whistles.  Plus, when I checked in, the front desk agent told me they were upgrading all the windows to make them noise proof.  I may have been in one of those recently renovated rooms.  I don't know and I didn't ask.Internet is free here.  There was a big screen HDTV with plenty of HD channels to choose from.  The lobby had free newspapers every day, including surprisingly, the rather big Sunday Fort Worth paper,I will be back visiting my son and I will definitely stay at this place again.  Just have to make sure it is not when TCU football is playing at home!More</t>
   </si>
   <si>
+    <t>KangaTex</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r131055184-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1218,6 +1353,9 @@
     <t>I stayed there on Marriott points, and it was worth what I paid. The rooms are a bit dark and the curtains had spiders in them. Otherwise, standard Marriott interior. The front desk staff was very friendly and took care of the spiders ASAP. Quiet and nice interior courtyard.More</t>
   </si>
   <si>
+    <t>DScotty</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r130806098-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1233,6 +1371,9 @@
     <t>This is your typical Marriott Courtyard fare. Recently renovated rooms and lobby. Friendly staff. Rather quiet despite a major PGA tournament across the street kept the hotel full. No reason to complain about breakfast or drink quality and cost because there are so many places within walking distance. This property is an upscale part of Ft Worth, yet you are less than 6 miles from the Stockyards, downtown, and TCU, botanic gardens, art museum, Trinity Trails (for biking and running), and the rest of the cultural district. We used to stay in the Stockyard area or downtown, but the University area is where we will stay from now on.</t>
   </si>
   <si>
+    <t>Txexterminator</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r130365744-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1251,6 +1392,9 @@
     <t>Best of the choices in the area,  boy are the trains loud at night.  Service is best part of stayMore</t>
   </si>
   <si>
+    <t>emily34331</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r129546953-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1272,6 +1416,9 @@
     <t>This is a very modern hotel with a great indoor pool! Took the kids to the zoo the day we spent the night, and it is a short little drive to the hotel. Also, good little restaurants around as well! Will be back!!More</t>
   </si>
   <si>
+    <t>FirstLast</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r116118256-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1290,6 +1437,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>mjd50</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r115535966-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1305,6 +1455,9 @@
     <t>I had a courtyard facing suite so I did not hear the trains. The suite was very nice, with fridge and microwave.Internet was pretty fast. There are power outlets by the bed.There isn't a breakfast buffet like most courtyards. There have a small cook-to-order bistro, which is fairly expensive. An egg/cheese/spinach/ham english muffin with OJ is $11. Better off going next door to the IHOP.The location is good (unless you can hear the trains).</t>
   </si>
   <si>
+    <t>x57114</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r115013151-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1320,6 +1473,9 @@
     <t xml:space="preserve">Average hotel in a decent location in the city. A bonus is how close it is to the river and it's trails. For Active people it's a great location to get your morning workout in with a decent view. Sometimes heard the trains as others reviewed but it's not as bad as they said. My only complaint is how late in the day the come to turn over your room. </t>
   </si>
   <si>
+    <t>greg9111</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r112963134-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1335,6 +1491,9 @@
     <t>Hotel is cursed with location. Bring your ear plugs. Trains toot all night. When I made a request for a courtyard room at the time of reserving the room, I was told they could not do it. My mistake. TCU visitors there are plenty of other choices.  Find one!</t>
   </si>
   <si>
+    <t>Iguana108</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r89824713-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1353,6 +1512,9 @@
     <t>December 2010</t>
   </si>
   <si>
+    <t>clv519</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r65491362-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1392,6 +1554,9 @@
     <t>April 2010</t>
   </si>
   <si>
+    <t>xNite</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r59974128-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1413,6 +1578,9 @@
     <t>We stayed here for three nights while visiting Family and were pleasantly surprised at the pure comfort of this Hotel. There's always complimentary coffee &amp; tea available at a 24hr beverage station. intenet &amp; printer service always available, and a 24hr fitness room with free weights &amp; a bench, treadmill, cardio elliptical machine, and stationary bike (all equipped with TV's). The best part is the Bistro where you can get a cocktail and chill in the unique lounge with flat panel TV's in each booth. The food is good, too. I had the Tomato Mozzarella hand made pizza and fell in love. Delicious! the pita chips and hummus is a good snack and there is always fresh fruit for sale. The staff is really nice and go out of their way to accommodate you. The hotel is conveniently located behind a steak house restaurant and a Pannini grill restaurant is next to that. The museum and river trail is walking distance. You can't go wrong here, especially on the first floor where you can walk right out of your rooms sliding doors into the pool! I can't wait to come back and visit. I will definitely be staying here again.More</t>
   </si>
   <si>
+    <t>derecat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r46318712-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1431,6 +1599,9 @@
     <t>October 2009</t>
   </si>
   <si>
+    <t>shellfromtexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r30743830-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1449,6 +1620,9 @@
     <t>May 2009</t>
   </si>
   <si>
+    <t>matt_tx00</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r27969509-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1470,6 +1644,9 @@
     <t>I stayed here for one night in Apr 2009 at the end of a business trip.  I booked it on Priceline the day of as a 3-star hotel for a $70 rate ($88 including fees).  I showed up like an hour later and checked in.  The hotel is about a 10 minute drive from downtown and just a few minutes from the TCU campus.  Its a little dated - just two stories - not your typical Courtyard.  However, it was fine inside - plenty clean quiet and nice, etc.  There was an outdoor pool as well.  Not sure if there was a fitness center.  Riverside Dr. right nearby there is a jogging trail which goes along the river.  There's a few restaurants nearby - Chili's, IHOP, Macaroni Grill - also a bunch of Pappas places right by I-30 not too far away.Oh yeah, parking is FREE - which you won't find in the downtown hotels.   The parking is outside but looks like a good area.  It also looked like they might have offered a breakfast too but I didn't partake.I participated in the Race for the Cure the next morning.  I was late getting back to the hotel that day, and they still let me check out around 1PM okay.  The front desk clerk was very helpful finding a good restaurant for lunch.More</t>
   </si>
   <si>
+    <t>happytrailsagain</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r25522168-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1491,6 +1668,9 @@
     <t>We stayed here for 2 nights while visiting TCU. It is very close to campus and there is a nice walking path right across the street. However, it was very pricey compared to most other hotels in town. Also, there was no elevator and it is a 2-story hotel. We had quite a few bags and they said there was no one to help us with our bags. The room was okay, nothing special. The internet was free. The front desk wasn't super helpful, but we didn't need too many services.Next trip, we will look for another hotel. Ft. Worth isn't that big of a town and even staying downtown doesn't add much time to a commute to campus.More</t>
   </si>
   <si>
+    <t>liroku</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r20575156-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1509,6 +1689,9 @@
     <t>Room was nice, everything seemed pretty new. Room felt clean and fresh. Nice non-smoking room. Didn't get a chance to check out the courtyard and pool, but it looked very pretty. Our room had a view of the back of a car wash... most rooms don't overlook the Trinity River. Bed was very comfortable--on the firm side, but my girl and I both prefer it. The lights in the room were kind of annoying--every lamp was fitted with a VERY BRIGHT 150-watt equivalent compact fluorescent bulb. They were too bright; I couldn't leave one on to read while my girl slept. Nothing is free here. $2 to drink the bottle of water they leave in the room. Breakfast is an additional charge--and is revolting. Don't bother, hit the Old South Pancake house just down the street. They're open 24-7, and their food is infinitely better than anything you'll get at the hotel. All in all, though, a good deal. Not a bad price for being that close to TCU and the rest of Fort Worth. You're close to some of the nicest attractions in town. I'd have no problem staying there again. I'd pass on the breakfast this time, though.More</t>
   </si>
   <si>
+    <t>CATHERINE85</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r17669917-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1527,6 +1710,9 @@
     <t>July 2008</t>
   </si>
   <si>
+    <t>Crawfish Boil</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r10654345-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1545,6 +1731,9 @@
     <t>October 2007</t>
   </si>
   <si>
+    <t>Vroom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r3492676-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1561,6 +1750,9 @@
   </si>
   <si>
     <t>Stayed here in March while visiting TCU. I think this hotel is the closest if you are visiting the University. Nice staff, helpful, clean. Front desk was always very nice, helpful and offered me a candy from their candy bowl everytime I was at the front counter. I needed some help with their business center and the front desk person was great in aiding me. Didn't try their breakfast but it was offered at a charge. Parking was easy/no charge. Their weekend rate was fine but the weekly/business rate was a killer for getting nothing with. I would look for something else for a longer stay. A couple of restaurants within walking distance but you need your car for most. Needed to use room key to enter from outside, which I liked. Nice location on the riverfront. The train tracks are across University Dr. so you are close enough to hear the train at night but this hotel is further from the train than some. They took care of me, and I would stay there again.More</t>
+  </si>
+  <si>
+    <t>Steve421</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r3325244-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
@@ -2086,43 +2278,47 @@
       <c r="A2" t="n">
         <v>27537</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>127553</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -2138,56 +2334,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>27537</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>127554</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2205,56 +2405,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>27537</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>28420</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -2272,56 +2476,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>27537</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>831</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2335,50 +2543,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>27537</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>127555</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>93</v>
+      </c>
+      <c r="O6" t="s">
         <v>86</v>
-      </c>
-      <c r="L6" t="s">
-        <v>87</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>88</v>
-      </c>
-      <c r="O6" t="s">
-        <v>82</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -2396,50 +2608,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>27537</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>127556</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -2457,50 +2673,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>27537</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>107905</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -2520,50 +2740,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>27537</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>127557</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2577,50 +2801,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>27537</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>127558</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2640,50 +2868,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>27537</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>127559</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="O11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2701,50 +2933,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>27537</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>44636</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="O12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2758,50 +2994,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>27537</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>127560</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="K13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="L13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="O13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2819,56 +3059,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="X13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="Y13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>27537</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>26656</v>
+      </c>
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="J14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="K14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2880,56 +3124,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="X14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="Y14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>27537</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>14385</v>
+      </c>
+      <c r="C15" t="s">
+        <v>153</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="J15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="K15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2943,50 +3191,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>27537</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>57808</v>
+      </c>
+      <c r="C16" t="s">
+        <v>161</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="J16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="K16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="O16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2998,56 +3250,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="X16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="Y16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>27537</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>98347</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="J17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -3067,50 +3323,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>27537</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>127561</v>
+      </c>
+      <c r="C18" t="s">
+        <v>178</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="J18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="K18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="O18" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3122,56 +3382,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="X18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="Y18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>27537</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>127562</v>
+      </c>
+      <c r="C19" t="s">
+        <v>188</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="J19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -3187,56 +3451,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="X19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="Y19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>27537</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>127563</v>
+      </c>
+      <c r="C20" t="s">
+        <v>198</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="J20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="K20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="O20" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3254,56 +3522,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="X20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="Y20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>27537</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>2124</v>
+      </c>
+      <c r="C21" t="s">
+        <v>207</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="J21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="K21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="O21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3315,56 +3587,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="X21" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="Y21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>27537</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>127564</v>
+      </c>
+      <c r="C22" t="s">
+        <v>215</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="J22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="K22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="L22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="O22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3376,56 +3652,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="X22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="Y22" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>27537</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>4976</v>
+      </c>
+      <c r="C23" t="s">
+        <v>225</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="J23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="K23" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="O23" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3443,50 +3723,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>27537</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>127565</v>
+      </c>
+      <c r="C24" t="s">
+        <v>232</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="J24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="K24" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="L24" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3504,50 +3788,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>27537</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>127566</v>
+      </c>
+      <c r="C25" t="s">
+        <v>239</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="J25" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="K25" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="O25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3565,41 +3853,45 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>27537</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>127567</v>
+      </c>
+      <c r="C26" t="s">
+        <v>246</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="J26" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="K26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="L26" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
@@ -3618,50 +3910,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>27537</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>127568</v>
+      </c>
+      <c r="C27" t="s">
+        <v>253</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="J27" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="K27" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="L27" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="O27" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3675,41 +3971,45 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>27537</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>127569</v>
+      </c>
+      <c r="C28" t="s">
+        <v>259</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="J28" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="K28" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="L28" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
@@ -3728,50 +4028,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>27537</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>127570</v>
+      </c>
+      <c r="C29" t="s">
+        <v>266</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="J29" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="K29" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="L29" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3791,50 +4095,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>27537</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>24215</v>
+      </c>
+      <c r="C30" t="s">
+        <v>273</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="J30" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="K30" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="L30" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -3854,50 +4162,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>27537</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>127571</v>
+      </c>
+      <c r="C31" t="s">
+        <v>280</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="J31" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="K31" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="L31" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3917,50 +4229,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>27537</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>127572</v>
+      </c>
+      <c r="C32" t="s">
+        <v>287</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="J32" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="K32" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="L32" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="O32" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3980,50 +4296,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>27537</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>80644</v>
+      </c>
+      <c r="C33" t="s">
+        <v>295</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="J33" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="K33" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="L33" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="O33" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -4043,50 +4363,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>27537</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>127573</v>
+      </c>
+      <c r="C34" t="s">
+        <v>303</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="J34" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="K34" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="L34" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4104,47 +4428,51 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="X34" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="Y34" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>27537</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>127574</v>
+      </c>
+      <c r="C35" t="s">
+        <v>312</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="J35" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="K35" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="L35" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
@@ -4171,56 +4499,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="X35" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="Y35" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>27537</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>83844</v>
+      </c>
+      <c r="C36" t="s">
+        <v>319</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="J36" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="K36" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="L36" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4238,56 +4570,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="X36" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="Y36" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>27537</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>127575</v>
+      </c>
+      <c r="C37" t="s">
+        <v>329</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="J37" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="K37" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="L37" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="O37" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -4309,13 +4645,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="X37" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="Y37" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38">
@@ -4328,37 +4664,37 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="J38" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="K38" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="L38" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="O38" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -4380,47 +4716,51 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="X38" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="Y38" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>27537</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>127576</v>
+      </c>
+      <c r="C39" t="s">
+        <v>348</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="J39" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="K39" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="L39" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
@@ -4447,56 +4787,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="X39" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="Y39" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>27537</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>127577</v>
+      </c>
+      <c r="C40" t="s">
+        <v>357</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="J40" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="K40" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="L40" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -4518,13 +4862,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="X40" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="Y40" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
     </row>
     <row r="41">
@@ -4537,28 +4881,28 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="J41" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="K41" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="L41" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
@@ -4585,56 +4929,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="X41" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="Y41" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>27537</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>127578</v>
+      </c>
+      <c r="C42" t="s">
+        <v>375</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="J42" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="K42" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="L42" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="O42" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -4656,56 +5004,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="X42" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="Y42" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>27537</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>127579</v>
+      </c>
+      <c r="C43" t="s">
+        <v>385</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="J43" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="K43" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="L43" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -4727,56 +5079,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="X43" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="Y43" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>27537</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>127580</v>
+      </c>
+      <c r="C44" t="s">
+        <v>394</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="J44" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="K44" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="L44" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="O44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -4798,56 +5154,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="X44" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="Y44" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>27537</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>127581</v>
+      </c>
+      <c r="C45" t="s">
+        <v>404</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="J45" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="K45" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="L45" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="O45" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -4869,56 +5229,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="X45" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="Y45" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>27537</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>4541</v>
+      </c>
+      <c r="C46" t="s">
+        <v>414</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="J46" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="K46" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="L46" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P46" t="n">
         <v>2</v>
@@ -4940,56 +5304,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="X46" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="Y46" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>27537</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>127582</v>
+      </c>
+      <c r="C47" t="s">
+        <v>424</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="J47" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
       <c r="K47" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
       <c r="L47" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="O47" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -5011,56 +5379,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="X47" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="Y47" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>27537</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>127583</v>
+      </c>
+      <c r="C48" t="s">
+        <v>433</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="J48" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="K48" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="L48" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="O48" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -5082,56 +5454,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="X48" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="Y48" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>27537</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>127584</v>
+      </c>
+      <c r="C49" t="s">
+        <v>441</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="J49" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="K49" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
       <c r="L49" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5155,41 +5531,45 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>27537</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>127585</v>
+      </c>
+      <c r="C50" t="s">
+        <v>447</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>401</v>
+        <v>448</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="J50" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="K50" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="L50" t="s">
-        <v>405</v>
+        <v>452</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
@@ -5216,56 +5596,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="X50" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="Y50" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>27537</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>127586</v>
+      </c>
+      <c r="C51" t="s">
+        <v>454</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>408</v>
+        <v>456</v>
       </c>
       <c r="J51" t="s">
-        <v>409</v>
+        <v>457</v>
       </c>
       <c r="K51" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="L51" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="O51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5287,56 +5671,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="X51" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="Y51" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>27537</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>127587</v>
+      </c>
+      <c r="C52" t="s">
+        <v>462</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="J52" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="K52" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="L52" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="O52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P52" t="n">
         <v>2</v>
@@ -5356,50 +5744,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>27537</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>92098</v>
+      </c>
+      <c r="C53" t="s">
+        <v>469</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>421</v>
+        <v>471</v>
       </c>
       <c r="J53" t="s">
-        <v>422</v>
+        <v>472</v>
       </c>
       <c r="K53" t="s">
-        <v>423</v>
+        <v>473</v>
       </c>
       <c r="L53" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="O53" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5419,41 +5811,45 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>27537</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>127588</v>
+      </c>
+      <c r="C54" t="s">
+        <v>475</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>425</v>
+        <v>476</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="J54" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="K54" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="L54" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
@@ -5482,41 +5878,45 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>27537</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>127589</v>
+      </c>
+      <c r="C55" t="s">
+        <v>481</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="J55" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
       <c r="K55" t="s">
-        <v>433</v>
+        <v>485</v>
       </c>
       <c r="L55" t="s">
-        <v>434</v>
+        <v>486</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
@@ -5545,50 +5945,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>434</v>
+        <v>486</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>27537</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>127590</v>
+      </c>
+      <c r="C56" t="s">
+        <v>487</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
       <c r="J56" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="K56" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="L56" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5612,50 +6016,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>27537</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>127591</v>
+      </c>
+      <c r="C57" t="s">
+        <v>494</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>441</v>
+        <v>495</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>442</v>
+        <v>496</v>
       </c>
       <c r="J57" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="K57" t="s">
-        <v>444</v>
+        <v>498</v>
       </c>
       <c r="L57" t="s">
-        <v>445</v>
+        <v>499</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>446</v>
+        <v>500</v>
       </c>
       <c r="O57" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P57" t="n">
         <v>1</v>
@@ -5679,7 +6087,7 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
     </row>
     <row r="58">
@@ -5692,37 +6100,37 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>449</v>
+        <v>503</v>
       </c>
       <c r="J58" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
       <c r="K58" t="s">
-        <v>451</v>
+        <v>505</v>
       </c>
       <c r="L58" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="M58" t="n">
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>453</v>
+        <v>507</v>
       </c>
       <c r="O58" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -5746,50 +6154,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>27537</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>127592</v>
+      </c>
+      <c r="C59" t="s">
+        <v>508</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="J59" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="K59" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="L59" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
       <c r="O59" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -5813,50 +6225,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>460</v>
+        <v>515</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>27537</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>127593</v>
+      </c>
+      <c r="C60" t="s">
+        <v>516</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>462</v>
+        <v>518</v>
       </c>
       <c r="J60" t="s">
-        <v>463</v>
+        <v>519</v>
       </c>
       <c r="K60" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="L60" t="s">
-        <v>465</v>
+        <v>521</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>466</v>
+        <v>522</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>2</v>
@@ -5880,50 +6296,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>465</v>
+        <v>521</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>27537</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>127594</v>
+      </c>
+      <c r="C61" t="s">
+        <v>523</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>467</v>
+        <v>524</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>468</v>
+        <v>525</v>
       </c>
       <c r="J61" t="s">
-        <v>469</v>
+        <v>526</v>
       </c>
       <c r="K61" t="s">
-        <v>470</v>
+        <v>527</v>
       </c>
       <c r="L61" t="s">
-        <v>471</v>
+        <v>528</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -5947,50 +6367,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>471</v>
+        <v>528</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>27537</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>127595</v>
+      </c>
+      <c r="C62" t="s">
+        <v>530</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>473</v>
+        <v>531</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>474</v>
+        <v>532</v>
       </c>
       <c r="J62" t="s">
-        <v>475</v>
+        <v>533</v>
       </c>
       <c r="K62" t="s">
-        <v>476</v>
+        <v>534</v>
       </c>
       <c r="L62" t="s">
-        <v>477</v>
+        <v>535</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>478</v>
+        <v>536</v>
       </c>
       <c r="O62" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6014,50 +6438,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>479</v>
+        <v>537</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>27537</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>127596</v>
+      </c>
+      <c r="C63" t="s">
+        <v>538</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>480</v>
+        <v>539</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>481</v>
+        <v>540</v>
       </c>
       <c r="J63" t="s">
-        <v>482</v>
+        <v>541</v>
       </c>
       <c r="K63" t="s">
-        <v>483</v>
+        <v>542</v>
       </c>
       <c r="L63" t="s">
-        <v>484</v>
+        <v>543</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="O63" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P63" t="n">
         <v>3</v>
@@ -6081,50 +6509,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>486</v>
+        <v>545</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>27537</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>127597</v>
+      </c>
+      <c r="C64" t="s">
+        <v>546</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>487</v>
+        <v>547</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>488</v>
+        <v>548</v>
       </c>
       <c r="J64" t="s">
-        <v>489</v>
+        <v>549</v>
       </c>
       <c r="K64" t="s">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="L64" t="s">
-        <v>491</v>
+        <v>551</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="O64" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -6148,50 +6580,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>492</v>
+        <v>552</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>27537</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>127598</v>
+      </c>
+      <c r="C65" t="s">
+        <v>553</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>493</v>
+        <v>554</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>494</v>
+        <v>555</v>
       </c>
       <c r="J65" t="s">
-        <v>495</v>
+        <v>556</v>
       </c>
       <c r="K65" t="s">
-        <v>496</v>
+        <v>557</v>
       </c>
       <c r="L65" t="s">
-        <v>497</v>
+        <v>558</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>498</v>
+        <v>559</v>
       </c>
       <c r="O65" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P65" t="n">
         <v>3</v>
@@ -6215,50 +6651,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>497</v>
+        <v>558</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>27537</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>34266</v>
+      </c>
+      <c r="C66" t="s">
+        <v>560</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>499</v>
+        <v>561</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="J66" t="s">
-        <v>501</v>
+        <v>563</v>
       </c>
       <c r="K66" t="s">
-        <v>502</v>
+        <v>564</v>
       </c>
       <c r="L66" t="s">
-        <v>503</v>
+        <v>565</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>504</v>
+        <v>566</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -6282,41 +6722,45 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>503</v>
+        <v>565</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>27537</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>127599</v>
+      </c>
+      <c r="C67" t="s">
+        <v>567</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>505</v>
+        <v>568</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>506</v>
+        <v>569</v>
       </c>
       <c r="J67" t="s">
-        <v>507</v>
+        <v>570</v>
       </c>
       <c r="K67" t="s">
-        <v>508</v>
+        <v>571</v>
       </c>
       <c r="L67" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
@@ -6343,50 +6787,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>510</v>
+        <v>573</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>27537</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>127600</v>
+      </c>
+      <c r="C68" t="s">
+        <v>574</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>511</v>
+        <v>575</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>512</v>
+        <v>576</v>
       </c>
       <c r="J68" t="s">
-        <v>513</v>
+        <v>577</v>
       </c>
       <c r="K68" t="s">
-        <v>514</v>
+        <v>578</v>
       </c>
       <c r="L68" t="s">
-        <v>515</v>
+        <v>579</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>516</v>
+        <v>580</v>
       </c>
       <c r="O68" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -6408,7 +6856,7 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>517</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_148.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_148.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="743">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,168 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>CptJackDewey</t>
-  </si>
-  <si>
-    <t>06/07/2018</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r596571189-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>109187</t>
+  </si>
+  <si>
+    <t>596571189</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nice location &amp; staff</t>
+  </si>
+  <si>
+    <t>Parts of the hotel have been updated but it definitely an older model with lower popcorn ceilings.The room was very clean and neat with an updated bathroom.There was a double glass door to the courtyard but oddly some had a little place to sit outside with furniture and others has a handful of ugly stepping stones when you exit.The location is excellent though with easy access to the trails by the Trinity River and the wonderful Wood shack restaurant with great bbq and live music. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Camden M, Manager at Courtyard by Marriott Fort Worth University Drive, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Parts of the hotel have been updated but it definitely an older model with lower popcorn ceilings.The room was very clean and neat with an updated bathroom.There was a double glass door to the courtyard but oddly some had a little place to sit outside with furniture and others has a handful of ugly stepping stones when you exit.The location is excellent though with easy access to the trails by the Trinity River and the wonderful Wood shack restaurant with great bbq and live music. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r588524139-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>588524139</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Love this Courtyard Hotel!</t>
+  </si>
+  <si>
+    <t>Great location, clean &amp; friendly staff at the front desk. Rooms are a little dated but the beds are comfortable and clean. Common areas are well kept and cafe has delicious food for purchase.  Would definitely stay here again!</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r576976998-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>576976998</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Very nice and new</t>
+  </si>
+  <si>
+    <t>This was a great hotel.  It's brand new and very accomodating.  The room was spacious and very comfortable.  The breakfast buffet was extremely satisfying and had plenty to offer.  The only drawback was the train yard across the street.  I grew up around the sound of train whistles, so it didn't bother me.  If you book this room, my suggestion is to book rooms on the other side of the hotel.  They also make ear plugs and noise machines available to help with the noise from the trains. The staff was also very personable and friendly</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r572248920-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>572248920</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Location </t>
+  </si>
+  <si>
+    <t>Great location right on the Trinity River close to the Ft Worth zoo, Colonial CC and TCU. Great choice of multiple restaurants right around the corner. Clean, well kept property that has an updated lobby and about to be renovated rooms (which are still in great shape). On-site restaurant with good food albeit with limited menu and hours. Reasonably priced and much less than the downtown hotels.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r567575617-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>567575617</t>
+  </si>
+  <si>
+    <t>03/19/2018</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>First: Marriott deserves every accolade it gets for its beds and pillows - will be ordering the pillows for home. Second: this hotel is super conveniently located - very easy to get around, Woodshed Smokehouse is literally less than a block away, Ft. Worth Zoo is in walking distance. Very friendly staff, though the bartenders during our stay really need to learn how to make drinks other than beer and wine. Only other complaints are that there is no nightlight in the bathroom, and the bathroom does not have enough counter space. Would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r562801459-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>562801459</t>
+  </si>
+  <si>
+    <t>02/25/2018</t>
+  </si>
+  <si>
+    <t>Convenient location, make sure your room is on front side of property</t>
+  </si>
+  <si>
+    <t>I have stayed here before and had a pleasant experience. This time my room was on the back side of property and the train noise was unbearable.  Not so much the rumbling while in motion sounds but the every morning at 7:00 am constant blowing of horn, seriously lasts 30 minutes.  The first morning i thought it was a one time thing but happened sunday as well.  I asked check in staff and they said there was nothing they can do.  I totally get it, they have no control of trains, but why did i pay the same price as my friend who walked in without a reservation and got a room in the front of property?  Why would they put someone on that side of property with that level of noise without giving them a heads up, earplugs, or invest in sound masking/white noise etc?  The trains are just a couple blocks away so they are extremely loud.  I tried to turn the fan to on to drowned out the sound but that is not an option with their system.  the choices are cold air blowing or hot air blowing.  I went for cold for a while but then i was freezing.So make sure you request front of hotel for a peaceful sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed here before and had a pleasant experience. This time my room was on the back side of property and the train noise was unbearable.  Not so much the rumbling while in motion sounds but the every morning at 7:00 am constant blowing of horn, seriously lasts 30 minutes.  The first morning i thought it was a one time thing but happened sunday as well.  I asked check in staff and they said there was nothing they can do.  I totally get it, they have no control of trains, but why did i pay the same price as my friend who walked in without a reservation and got a room in the front of property?  Why would they put someone on that side of property with that level of noise without giving them a heads up, earplugs, or invest in sound masking/white noise etc?  The trains are just a couple blocks away so they are extremely loud.  I tried to turn the fan to on to drowned out the sound but that is not an option with their system.  the choices are cold air blowing or hot air blowing.  I went for cold for a while but then i was freezing.So make sure you request front of hotel for a peaceful sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r554851121-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>554851121</t>
+  </si>
+  <si>
+    <t>01/19/2018</t>
+  </si>
+  <si>
+    <t>Very private hotel</t>
+  </si>
+  <si>
+    <t>Stayed here for three nights to attend a funeral.  A very nice but pricey hotel. Breakfast is not included. There is a Starbucks inside with food and a full bar. Our room was clean and nice but not as big as we like. Thermostat was hard to adjust and ice machine was far away from our room.  The management was extremely friendly and said some updating was to be done soon. This is the best located and nicest hotel in the area but you pay for it! Lots of nice stores and restaurants near it. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Camden M, General Manager at Courtyard by Marriott Fort Worth University Drive, responded to this reviewResponded January 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here for three nights to attend a funeral.  A very nice but pricey hotel. Breakfast is not included. There is a Starbucks inside with food and a full bar. Our room was clean and nice but not as big as we like. Thermostat was hard to adjust and ice machine was far away from our room.  The management was extremely friendly and said some updating was to be done soon. This is the best located and nicest hotel in the area but you pay for it! Lots of nice stores and restaurants near it. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r549598838-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
-    <t>55857</t>
-  </si>
-  <si>
-    <t>109187</t>
-  </si>
-  <si>
     <t>549598838</t>
   </si>
   <si>
@@ -180,9 +327,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Camden M, Manager at Courtyard by Marriott Fort Worth University Drive, responded to this reviewResponded December 28, 2017</t>
   </si>
   <si>
@@ -192,9 +336,6 @@
     <t>The staff couldn't have been nicer or more helpful. The hotel in general is  well maintained but the decor a bit dated. We  rented 2 suites and  found that although they  had microwaves  and small fridges, there  was no silverware, corkscrew , bottle opener  or even glasses. So I'm not sure why they  have the microwave  or fridge. We were hosting a  small celebration after a  bowl victory and  had to improvise. . The  hotel  does not  offer a  free breakfast. They have the  BIstro, which in this case a cross between a Starbucks and a snack bar. The food is airline quality.More</t>
   </si>
   <si>
-    <t>capierce23</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r531234637-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -213,9 +354,6 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Camden M, General Manager at Courtyard by Marriott Fort Worth University Drive, responded to this reviewResponded October 10, 2017</t>
   </si>
   <si>
@@ -225,9 +363,6 @@
     <t>We had a room block for my son's wedding. The rooms are very clean and comfortable and the staff is excellent. The courtyard area by the pool was a great meeting place and allowed people to meet and relax between events. The bistro is perfect for a quick drink or bite but the area that this hotel is located in is amazing. So many restaurants within walking distance and bike rentals and trails right across the road. We had many compliments from our friends and family on choosing this location!More</t>
   </si>
   <si>
-    <t>Jim W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r509716698-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -255,9 +390,6 @@
     <t>Comfortable, quiet, clean room located in a central part of the city near TCU.  It was adequate for my needs and every place I needed to go was easily accessible.   I thought the hotel property itself was a little plain and the room price was a little too expensive for what was offered. That said, the bed was comfortable and the place met my need for a safe, comfortable place to spend a night and to serve as my home base for the next day in town.More</t>
   </si>
   <si>
-    <t>Brian S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r501700327-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -273,15 +405,6 @@
     <t>I arrived very late due to delayed flights, 1:00am arrival.  I was only booked for the night, a fact noted by clerk.Room was typical CBM clean and comfortable.  The inconsistency began at 9:35a, when I came down for breakfast at the Bistro, this one was closed.  I had yet to experience a closed Bistro before 10:00a so my day started without my usual breakfast or coffee; not a life changer but still not what was expected prior to a day of teaching and work!Staff was nice enough!</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Judeisa</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r497387528-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -300,9 +423,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t>trang2010</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r493907746-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -321,9 +441,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t>leroyk</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r489748239-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -342,9 +459,6 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t>andetherunner</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r485917779-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -360,9 +474,6 @@
     <t>We stayed one night. Great location. No surprises, unpleasant or otherwise. Clean room. Beds were great. Did not eat at Bistro so unable to comment. Friendly front desk staff who warned us about tornado watch and helpfully identified safe spots in hotel. We will definitely return next time we are in Fort Worth.</t>
   </si>
   <si>
-    <t>BamaGirl1972</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r478550874-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -378,9 +489,6 @@
     <t>Due to some scheduling conflicts, we needed to extend our stay in the area by another day and asked for a late check out.  The front desk said no problem and took care of us.  Myzgell and Mary were very accommodating and even offered us free appetizers to the restaurant next door.  They were great!  I'd strongly suggest this hotel because it's close to TCU, the Ft Worth Zoo, Will Rogers Auditorium, Muueums, etc. Great location!  The rooms were clean as well.</t>
   </si>
   <si>
-    <t>Kriss</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r475509259-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -402,9 +510,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>Katherine P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r471783492-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -420,9 +525,6 @@
     <t xml:space="preserve">Location is near TCU, is also walking distance to several restaurants and shops and driving distance to downtown Fort Worth.  Staff is very friendly.   Rooms are nice, where first floor rooms open to the outside Courtyard.   Hotel has your typical Bistro and bar.  </t>
   </si>
   <si>
-    <t>cordobatim</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r470917806-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -447,9 +549,6 @@
     <t>This is an older hotel. Strange to have a room with just one queen bed, but I guess that's all that would fit.Location is good for visiting TCU, which we were.Room was quite noisy, from next-door neighbors to a dog tied to a pole in the parking lot to cleaning staff calling to one another early on a Saturday morning. (And banging on our door at 9 a.m. on the Saturday that we were scheduled to check out; what's with that?)I don't normally stay with this chain. Nothing about this stay would make me change my mind.More</t>
   </si>
   <si>
-    <t>Frank N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r463060418-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -477,9 +576,6 @@
     <t>Clean, in good repair with a very friendly staff.  We got a good nights sleep in a quiet room.  The bistro in the lobby offers a selection of institutional food and Starbucks coffee It is unusual for a hotel of this type to not at least offer guests free morning coffee in the lobby Apparently the standard undrinkable coffee and coffeemaker in the room is supposed to suffice More</t>
   </si>
   <si>
-    <t>Ashley C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r454822888-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -501,9 +597,6 @@
     <t>Our group of 6 total (3 rooms) stayed in this hotel during our time attending the Fort Worth Stock Show &amp; Rodeo. Check-in was OK, the girl was a little confused that the rooms were all being checked in to at different times but she got it figured out. They do place a hold on your card for the hotel plus the "bistro" expenses which totals to about $70 above the hotel cost. They said the extra amount held was if you wanted to charge your purchases at the bistro to your room instead of paying for them at the time of service? The bistro is nice in and of itself, drinks were good, but the poor girl working it was by herself and it took FOREVER to get any food because she was working alone. Also it was very expensive!Location is great, within less than 5 miles from the stock show grounds. There are several restaurants within walking distance, as well as gas stations and other things like shopping.The room was very nice. We had a king bed. It was a clean room and the bathroom was nice.Overall, I would definitely stay again and would recommend this hotel. More</t>
   </si>
   <si>
-    <t>hillary210</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r453476521-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -528,9 +621,6 @@
     <t>When I arrived, I was told I would have to lug my suitcases up stairs. I then found out there was an elevator that was so far away... it was ridiculous. I was also approached to not have maid service for more points(?). They must be short staffed. The third day I was staying here, I went to the bistro and stood there over 15 minutes with the girl not a acknowledging my presence. I then went to the check in desk and then was ignored. I ended up ordering pizza from an outside company. Poor service. Rooms were "ok" no hot water for sink. Shower was fine. I will never return. Too many places to stay. More</t>
   </si>
   <si>
-    <t>Russell H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r439589088-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -552,9 +642,6 @@
     <t>We were in town for our daughter to tour TCU and stayed here because of its convenient location and "Courtyard" level of service.  We were not disappointed.  The property is clean, updated and well maintained.  The staff is super friendly, courteous and professional.  If you have stayed at a Courtyard, you know what to expect in general, but some are better than others.  This one rates very good in our opinion. As usual, there is no dining room per say, but there is a lounge area where you can eat or drink and a limited menu from which to order either from your room or at the bar.  While there is a work out room, you can also take a walk  or run along the Clear Fork Trinity River right across the street.  You can also have a great meal next door at the Hoffbrau Steaks restaurant (ask for a dessert coupon from the front desk) or grab a sandwich at Panera Bread, also next door.More</t>
   </si>
   <si>
-    <t>woozel</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r427591992-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -582,9 +669,6 @@
     <t>As far as courtyard hotels, I found this one pretty average. There's only two floors, but it's quiet enough that you don't need higher floors to get away from noise. It seemed a little dated in the rooms, but it was comfortable. There's a couple of restaurants close by, but you really have to drive to get anywhere. The staff at the bistro was friendly and helpful. This is the first courtyard where I was not offered points, an amenity, or free coffee upon arrival as a platinum member.More</t>
   </si>
   <si>
-    <t>pes7</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r392279137-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -612,9 +696,6 @@
     <t>Reserved a room here due to a visit to the TCU campus. Not only was it very convenient for that, but the hotel is directly across a quiet street from the Trinity Trail system. Loved that feature as it made morning runs so easy. The hotel itself is a typical Courtyard. The room was relatively small and as the hotel was completely booked, moving to another room wasn't possible. Rooms were clean. The A/C system was quite good keeping the room a nice temperature even on a scorching hot day. Would hope for a better room were I to return to this hotel.More</t>
   </si>
   <si>
-    <t>utex99</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r391298510-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -639,9 +720,6 @@
     <t>I stayed at this hotel for a conference being held on the campus of TCU in early July for 4 nights.  I am not a picky person and was very satisfied with my stay.  I stayed at this location because of its proximity to the TCU campus.  I didn't have any complaints at all. It was very easy to get to campus.  There are many restaurants nearby within walking distance.  I would recommend this hotel if you have anything going on near the TCU campus or visiting the the Fort Worth Zoo/Cultural District area.More</t>
   </si>
   <si>
-    <t>Lori B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r387011760-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -663,7 +741,115 @@
     <t>Loved this hotel for our recent visit to TCU. 5 min from campus. Great restaurants close by and easy parking. Starbucks in the lobby along with a lot of great food choices at a walk up counter. Huge, brightly colored lobby with a big tv for sports watching. Nice pool and workout facility. This hotel has everything you need...just like all Courtyards. More</t>
   </si>
   <si>
-    <t>MicheleVaudt</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r365767334-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>365767334</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Maid threw away $800 worth of merchandise</t>
+  </si>
+  <si>
+    <t>I am VERY disappointed in their service.  Upon arrival, they didn't have the room that I had asked for, but they made it right.  The hotel was nice and first nights stay was fine.  My daughter and I had been shopping for 3 days over Spring Break and had a large sack FULL of things.  Upon arriving back to room the next afternoon the sack was gone.  I went straight to the front desk and reported it.  The maid said she thought it was trash, so "I" ask if we could please look in the dumpster. After digging through the dumpster for a long period of time, NO MERCHANDISE!!!!!!!!!!!! They acted like it was no big deal.  They told me that they would wipe out the charges for the hotel, but as of a month later I am still being charged nearly $300.  NOT GOOD! Last stay there! LOCK YOUR STUFF UP!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Camden M, General Manager at Courtyard by Marriott Fort Worth University Drive, responded to this reviewResponded May 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2016</t>
+  </si>
+  <si>
+    <t>I am VERY disappointed in their service.  Upon arrival, they didn't have the room that I had asked for, but they made it right.  The hotel was nice and first nights stay was fine.  My daughter and I had been shopping for 3 days over Spring Break and had a large sack FULL of things.  Upon arriving back to room the next afternoon the sack was gone.  I went straight to the front desk and reported it.  The maid said she thought it was trash, so "I" ask if we could please look in the dumpster. After digging through the dumpster for a long period of time, NO MERCHANDISE!!!!!!!!!!!! They acted like it was no big deal.  They told me that they would wipe out the charges for the hotel, but as of a month later I am still being charged nearly $300.  NOT GOOD! Last stay there! LOCK YOUR STUFF UP!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r365731072-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>365731072</t>
+  </si>
+  <si>
+    <t>Courtyard Consistency Close to TCU</t>
+  </si>
+  <si>
+    <t>This is my preferred hotel when visiting TCU.  The service is consistently friendly and professional.  The Courtyard pool is always clean and sparsely used.  The onsite deli offers a serviceable breakfast and dinner menu.  If your schedule permits, walk a block to the Woodshed Smokehouse restaurant.  Relax at an outdoor picnic bench next to the river to enjoy the view while sampling some of the best outdoor BBQ in all of Texas.  The hotel is just 5 minutes from TCU, and about 35 minutes from DFW airport.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r365242448-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>365242448</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>Convenient Location to Visit TCU</t>
+  </si>
+  <si>
+    <t>It is clean and the entire staff was both friendly and accommodating. The location is very close to TCU. It is a short five minute drive to TCU. The hotel is reasonably priced and nearby to some good restaurants on University Drive. It is easy to get to from I-30 and I-35W!And lived up to my expectations and the reason that I frequently choose Courtyard by Marriott hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>Camden M, General Manager at Courtyard by Marriott Fort Worth University Drive, responded to this reviewResponded April 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2016</t>
+  </si>
+  <si>
+    <t>It is clean and the entire staff was both friendly and accommodating. The location is very close to TCU. It is a short five minute drive to TCU. The hotel is reasonably priced and nearby to some good restaurants on University Drive. It is easy to get to from I-30 and I-35W!And lived up to my expectations and the reason that I frequently choose Courtyard by Marriott hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r359893900-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>359893900</t>
+  </si>
+  <si>
+    <t>03/29/2016</t>
+  </si>
+  <si>
+    <t>Easter Weekend Visit</t>
+  </si>
+  <si>
+    <t>Great location- Right across from the Trinity River.  We rented bikes daily and enjoyed a long bike ride along the trail.  We also walked over to Wood Shed for dinner and drinks.  Excellent place too!. Awesome staff- very friendly and accommodating.  Breakfast is good and quick. Enjoyable bar. The rooms could use a little updating. They are worn but it is clean and the location and staff can't be beat.  Given how close this hotel is to TCU, I would think that Marriott would want to invest a few dollars to give the rooms a facelift.  I will definitely stay here again and again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great location- Right across from the Trinity River.  We rented bikes daily and enjoyed a long bike ride along the trail.  We also walked over to Wood Shed for dinner and drinks.  Excellent place too!. Awesome staff- very friendly and accommodating.  Breakfast is good and quick. Enjoyable bar. The rooms could use a little updating. They are worn but it is clean and the location and staff can't be beat.  Given how close this hotel is to TCU, I would think that Marriott would want to invest a few dollars to give the rooms a facelift.  I will definitely stay here again and again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r349834932-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>349834932</t>
+  </si>
+  <si>
+    <t>02/21/2016</t>
+  </si>
+  <si>
+    <t>Watch the rate!</t>
+  </si>
+  <si>
+    <t>They change the rates on you (basically price gouging) depending on how many people decide to stay there even if you had your reservations months in advance. It's also not very clean and the beds are terrible.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Camden M, General Manager at Courtyard by Marriott Fort Worth University Drive, responded to this reviewResponded February 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2016</t>
+  </si>
+  <si>
+    <t>They change the rates on you (basically price gouging) depending on how many people decide to stay there even if you had your reservations months in advance. It's also not very clean and the beds are terrible.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r348959299-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
@@ -684,18 +870,9 @@
     <t>February 2016</t>
   </si>
   <si>
-    <t>Camden M, General Manager at Courtyard by Marriott Fort Worth University Drive, responded to this reviewResponded February 22, 2016</t>
-  </si>
-  <si>
-    <t>Responded February 22, 2016</t>
-  </si>
-  <si>
     <t>Awesome hotel.  The entire  staff was friendly and accommodating.  The breakfast was tasty and quick!  It is very clean.  The hotel is steps away from a small river walk where we ran in the morning.  You could walk to TCU but we chose to take Uber.  The hotel is easy to get to but the front door is not on a busy road which is nice!More</t>
   </si>
   <si>
-    <t>Debbie M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r340460986-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -714,9 +891,6 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t>Raven_072</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r338293892-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -735,9 +909,6 @@
     <t>December 2015</t>
   </si>
   <si>
-    <t>cfan2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r321971873-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -756,9 +927,6 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t>Born2discover</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r321485415-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -777,9 +945,6 @@
     <t>I stayed here for a week when in town visiting TCU.  This hotel was a nice, basic hotel.  Although there was hair in the sink upon arrival, the rest of my room was very clean.  I told the front desk staff about hair in the sink and it was cleaned before I returned to my room.  The bed was SUPER comfortable!  The restaurant/bar was your typical overpriced hotel food, but was had good food and a variety of drinks.  This hotel is across the street from WoodShed, a wonderful restaurant, and a bike/running path with bike rentals.  My room was quiet and comfortable.  The A/C was quite noisy, however, but I didn't mind.  There is now an elevator which is nice for luggage.  I'd stay here again, for sure.More</t>
   </si>
   <si>
-    <t>TsaLaGi</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r319422256-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -795,9 +960,6 @@
     <t>This is a very nice courtyard in a great location. Just down the street dining varies from pancakes to a brewpub steakhouse. The hotel's staff was friendly. Make sure if you have any mobility issues you let them know, as some rooms are a good way from the elevator. A nice Courtyard.</t>
   </si>
   <si>
-    <t>travelspady</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r313675389-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -816,9 +978,6 @@
     <t>I'm not quite sure what the marriott properties are up to, but I'm finding my stays more and more enjoyable, especially at this hotel.  I recently stayed here on business and could not have been more pleased. From the excellent food at the bistro for a late snack, to Mary helping me with directions to the Stockyard, Kari assisting me with shipping a pkg, to James helping me get a cab for the next day, every single person at this hotel greets you with a smile. Sure one is used to service like this at a ritz Carlton, but the service here matches any five star property.  Friendly, good location, clean and comfy.  Stay here and enjoy the hospitality :) More</t>
   </si>
   <si>
-    <t>UFTAMU</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r307810601-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -837,9 +996,6 @@
     <t>September 2015</t>
   </si>
   <si>
-    <t>Jackie W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r293761261-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -858,9 +1014,6 @@
     <t>November 2014</t>
   </si>
   <si>
-    <t>noelle88</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r293124251-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -879,7 +1032,109 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t>susanlynne18</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r288605036-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>288605036</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t>Comfortable and Convenient</t>
+  </si>
+  <si>
+    <t>Just finished a 15 night stay at this hotel.  It's a nice property centrally located near TCU, the zoo and the cultural area of Fort Worth in a very nice, safe feeling area.  There are plenty of restaurants, an outdoor mall and Fresh Market just a minute away. All the employees were very nice and helpful.  The beds were very comfortable, the A/C was quiet and the blackout blinds worked great.  That may sound rather generic, but I've stayed in a lot of hotels with stiff or squeaky beds, A/C's that sound like lawn mowers and daylight streaming in at the crack of dawn, so I truly appreciate these qualities. My only complaint would be I would like a little larger refrigerator.  The room has a dorm sized cube fridge.  I really could have used the next size larger.  All in all, it was a very comfortable stay.  I would highly recommend this hotel and I plan on staying again when I'm in Fort Worth.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Just finished a 15 night stay at this hotel.  It's a nice property centrally located near TCU, the zoo and the cultural area of Fort Worth in a very nice, safe feeling area.  There are plenty of restaurants, an outdoor mall and Fresh Market just a minute away. All the employees were very nice and helpful.  The beds were very comfortable, the A/C was quiet and the blackout blinds worked great.  That may sound rather generic, but I've stayed in a lot of hotels with stiff or squeaky beds, A/C's that sound like lawn mowers and daylight streaming in at the crack of dawn, so I truly appreciate these qualities. My only complaint would be I would like a little larger refrigerator.  The room has a dorm sized cube fridge.  I really could have used the next size larger.  All in all, it was a very comfortable stay.  I would highly recommend this hotel and I plan on staying again when I'm in Fort Worth.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r265033613-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>265033613</t>
+  </si>
+  <si>
+    <t>04/11/2015</t>
+  </si>
+  <si>
+    <t>Not a hotel to WANT to stay at, but it'll do in a pinch</t>
+  </si>
+  <si>
+    <t>Finished up a 5 night stay here, due to unexpected construction at my apartment. This is a "it'll do" type of hotel. Nothing great, but it could be a lot worse.BedVery uncomfortable. They also advertise it as a King, but it's really a Queen. The sleeper sofa is also woeful in terms of comfort.Family FriendlinessWe were booked into a suite, but since it was on the 2nd floor of a building that has no elevator, it didn't work for us since we had two kids, including a large stroller. We were instead put into a regular room on the first floor, which was not comfortable for 2 adults and 2 kids.ParkingPlentiful.ServiceFront desk attendant seemed fine, as did the folks who changed our bed sheets, emptied the garbage, and delivered the crib. No complaints here.NoiseYou can hear people walking through the hallways when you're in your room, but other than that, we didn't hear our neighbors -- to the sides or above us.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Finished up a 5 night stay here, due to unexpected construction at my apartment. This is a "it'll do" type of hotel. Nothing great, but it could be a lot worse.BedVery uncomfortable. They also advertise it as a King, but it's really a Queen. The sleeper sofa is also woeful in terms of comfort.Family FriendlinessWe were booked into a suite, but since it was on the 2nd floor of a building that has no elevator, it didn't work for us since we had two kids, including a large stroller. We were instead put into a regular room on the first floor, which was not comfortable for 2 adults and 2 kids.ParkingPlentiful.ServiceFront desk attendant seemed fine, as did the folks who changed our bed sheets, emptied the garbage, and delivered the crib. No complaints here.NoiseYou can hear people walking through the hallways when you're in your room, but other than that, we didn't hear our neighbors -- to the sides or above us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r258646762-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>258646762</t>
+  </si>
+  <si>
+    <t>03/09/2015</t>
+  </si>
+  <si>
+    <t>Need enhanced management</t>
+  </si>
+  <si>
+    <t>Stayed here for a business meeting. We ate at the Bistro when we arrived the night before our meeting. The person working the Bistro was very friendly and helpful but she was by herself which made it difficult for her to help multiple guests. There was only one person at the check in desk as well so he couldn't help I suppose. Next morning we had to remind staff for coffee service for the meeting although the meeting room was setup very nicely as we had requested. Property and rooms were very clean and comfortable. Better management would raise this Courtyard's score.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Camden M, General Manager at Courtyard by Marriott Fort Worth University Drive, responded to this reviewResponded March 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for a business meeting. We ate at the Bistro when we arrived the night before our meeting. The person working the Bistro was very friendly and helpful but she was by herself which made it difficult for her to help multiple guests. There was only one person at the check in desk as well so he couldn't help I suppose. Next morning we had to remind staff for coffee service for the meeting although the meeting room was setup very nicely as we had requested. Property and rooms were very clean and comfortable. Better management would raise this Courtyard's score.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r256342955-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>256342955</t>
+  </si>
+  <si>
+    <t>02/25/2015</t>
+  </si>
+  <si>
+    <t>A Great Place to Lay Your Head</t>
+  </si>
+  <si>
+    <t>Found this to be a very clean and comfortable hotel.  Great location.  Several restaurants and shops within walking distance.  It's located on the river front and has a great walking path.There is a Bistro that serves breakfast and light bites.  They are open for breakfast, lunch and evening.  A full bar which stays open til maybe 10pm.All the staff were outstanding and friendly.  Easy drive to the downtown/stockyard and TCU area.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r249926937-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>249926937</t>
+  </si>
+  <si>
+    <t>01/18/2015</t>
+  </si>
+  <si>
+    <t>Marriott Exceeds Expectations</t>
+  </si>
+  <si>
+    <t>Marriott exceeds expectations!  Stayed for a single night so we could walk up to the bowl game - Pitt vs. Houston.  The checkin was fast and early!  Thanks.  Updated facility that is close to so many good restaurants.  Think I'll stay here when I travel to Ft Worth for business.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r244057416-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
@@ -901,9 +1156,6 @@
   </si>
   <si>
     <t>For a short stay business hotel this one did not disappoint. For personal travel I am a 5 star kind of girl. For business I stay where the office puts me. I am so often disappointed , but not this time. The staff were a fine example of southern hospitality. They were polite, helpful and nothing ruffled any of them. They honestly couldn't do enough for me. The lobby is bright and spotless with lots of place to sit and a TV for sports and news. The restaurant is right in the middle of the lobby and was much quieter then I would have imagined. What they call the business centre is three computer stations and printer off the lobby, bright and easy to use no charges! The WiFi worked well. The room was not huge but had all that you could need and was clean with well taken care of furniture. Plenty of electric outlets on the desk, fridge, microwave and coffeemaker. There was a sofa and king bed. The pool was open although too cold to swim even for this northerner. The hotel is right on a  terrific walking/running/biking trail and the small gym had new workout machines.More</t>
-  </si>
-  <si>
-    <t>JSalge05</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r231053834-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
@@ -931,9 +1183,6 @@
 The hotel itself is a standard Courtyard layout with the bistro setup in the lobby area.  I stay here a lot, almost every time I go to Fort Worth, and I'm always annoyed that this is a 2 story hotel that doesn't have an elevator.  Because I travel for a living, I've always got a lot of luggage to haul in with me, and it never fails that they always put me...As is the case with most of my stays, the location of the hotel is as important, or more important than the hotel itself.  If I'm rating JUST this hotel, it may be more of a 3/5 rating, but because of the location, I'd definitely put it in the 'very good' category.  I come to Fort Worth to do business at TCU, so if you need a place close to the University, then this is perfect -- you're literally a mile or two away from the school.  In addition, you've got a steakhouse, a Panera Bread and a bunch of other restaurants &amp; shopping a short walk away.  Probably my favorite feature of this area is that the hotel is located on the river, and there is a GREAT trail system that runs along the river -- I like to run, but there are also a ton of cyclists, dog walkers, etc...it's just a nice, scenic, mostly paved, trail along the river that goes for miles and miles.  The hotel itself is a standard Courtyard layout with the bistro setup in the lobby area.  I stay here a lot, almost every time I go to Fort Worth, and I'm always annoyed that this is a 2 story hotel that doesn't have an elevator.  Because I travel for a living, I've always got a lot of luggage to haul in with me, and it never fails that they always put me on the 2nd floor -- of course I always get them to change me to floor 1, but c'mon guys, put an elevator in your hotel, nobody likes to drag their luggage up the stairs!The staff is okay, the check-in process always seems to be a little slower here, there isn't always someone at the front desk, but it's fine, I've had worse experiences for sure.  The rooms are fine, typical of what you'd expect from a Courtyard.  The internet is free.  Overall, I'll continue to stay here because the location is absolutely perfect for what I need.  I'd recommend this hotel to others who need to come to this area of Fort Worth.More</t>
   </si>
   <si>
-    <t>penny79705</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r230369188-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -958,9 +1207,6 @@
     <t>Upon arrival what I had ordered on-line was not available. The check in clerk was rude and argumentative. If you have a disability and need an accessible room, do not stay here. Courtyard/Marriott should review current ADA rules governing access for the disabled and comply.More</t>
   </si>
   <si>
-    <t>Malin D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r223166341-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -979,9 +1225,6 @@
     <t>Great location on a quiet back street and with easy access to the highway and Fort Worth sites. Rooms are nice and clean with complimentary wifi, fridge and microwave. There's a bistro downstairs with a good selection. There's a gym and a nice pool area. The hotel doesn't have a lift but it's only two floors so we didn't have a problem. The girl who checked us in on the evening of August 18th was super nice and friendly.More</t>
   </si>
   <si>
-    <t>Dottie78704</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r214762362-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1009,7 +1252,254 @@
     <t>We always stay at the Marriot Courtyard when we are in Ft. Worth.  It is absolutely the most convenient place if you are doing the fabulous Ft. Worth Museums or Will Rogers complex. It is lovely, small and usually fully booked so plan ahead!  Staff is wonderful!  A big plus is the Woodshed down the street...if you don't know...it is Tim Love's place...terrific!  Food, drink and music...all good!  We don't stay anyplace else!More</t>
   </si>
   <si>
-    <t>biarritzblue</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r211012211-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>211012211</t>
+  </si>
+  <si>
+    <t>06/18/2014</t>
+  </si>
+  <si>
+    <t>Good and normal</t>
+  </si>
+  <si>
+    <t>It is a good place, normal USA Courtyard, passing by hotel. Tha cafeteria area serves what they offer. Maybe they can work on it a little more, provide more choises, etc. Improve some on quality of things.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Colleen R, General Manager at Courtyard by Marriott Fort Worth University Drive, responded to this reviewResponded June 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2014</t>
+  </si>
+  <si>
+    <t>It is a good place, normal USA Courtyard, passing by hotel. Tha cafeteria area serves what they offer. Maybe they can work on it a little more, provide more choises, etc. Improve some on quality of things.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r208924166-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>208924166</t>
+  </si>
+  <si>
+    <t>06/04/2014</t>
+  </si>
+  <si>
+    <t>Pleasantly surprized</t>
+  </si>
+  <si>
+    <t>The location was great, stayed three nights. We had two rooms; the air conditioner in one of the rooms stopped working twice.  They would fix it and it worked for a while and then stopped. The breakfast and service in the Bistro downstairs was very good. Overall the rooms were clean and the staff was pleasant and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>Colleen R, General Manager at Courtyard by Marriott Fort Worth University Drive, responded to this reviewResponded June 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2014</t>
+  </si>
+  <si>
+    <t>The location was great, stayed three nights. We had two rooms; the air conditioner in one of the rooms stopped working twice.  They would fix it and it worked for a while and then stopped. The breakfast and service in the Bistro downstairs was very good. Overall the rooms were clean and the staff was pleasant and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r205820456-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>205820456</t>
+  </si>
+  <si>
+    <t>05/16/2014</t>
+  </si>
+  <si>
+    <t>Excellent Choice</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for 4 nights, last week.  Very well appointed hotel for the category along with very clean rooms, a well maintained pool along with comfortable outdoor seating to relax or plug away on your laptop.  The staff was attentive to our needs, especially the cleaning staff who was always flexible and kept things looking top notch.  I had not one negative experience while on site and the staff went above on beyond on this busy graduation weekend.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for 4 nights, last week.  Very well appointed hotel for the category along with very clean rooms, a well maintained pool along with comfortable outdoor seating to relax or plug away on your laptop.  The staff was attentive to our needs, especially the cleaning staff who was always flexible and kept things looking top notch.  I had not one negative experience while on site and the staff went above on beyond on this busy graduation weekend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r203534757-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>203534757</t>
+  </si>
+  <si>
+    <t>04/30/2014</t>
+  </si>
+  <si>
+    <t>GREAT PLACE TO STAY</t>
+  </si>
+  <si>
+    <t>Stayed for 3 nights while visiting our grandson at TCU.  Lovely room overlooking the pool.  Well - appointed and VERY CLEAN.  Breakfast is not free, but a very friendly staff attends to your food needs.  Great 'River Walk' .... take your sneakers.  Also 'Tim Love's' famous Wood Shed Restaurant across the street.  A must do !  So Texas.  Loved everything.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Stayed for 3 nights while visiting our grandson at TCU.  Lovely room overlooking the pool.  Well - appointed and VERY CLEAN.  Breakfast is not free, but a very friendly staff attends to your food needs.  Great 'River Walk' .... take your sneakers.  Also 'Tim Love's' famous Wood Shed Restaurant across the street.  A must do !  So Texas.  Loved everything.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r202280604-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>202280604</t>
+  </si>
+  <si>
+    <t>04/22/2014</t>
+  </si>
+  <si>
+    <t>Breakfast not included</t>
+  </si>
+  <si>
+    <t>Hotel was nice, room was clean, comfortable and close to TCU. My husband has had knee surgery and doesn't do steps well so we asked for a ground floor room. We got our request and they had us just a couple of doors down from one of the back entrances. Unfortunately the key card reader on that door didn't work, so we had to walk through the entire building to reach our room. Breakfast is for purchase only and is expensive. Coffee too -- only Starbucks. We were charged for a pay-per-view movie which we didn't order, so be careful when you turn your TV on. The fee was refunded, but they acted like they didn't really believe we didn't order it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Colleen R, General Manager at Courtyard by Marriott Fort Worth University Drive, responded to this reviewResponded April 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2014</t>
+  </si>
+  <si>
+    <t>Hotel was nice, room was clean, comfortable and close to TCU. My husband has had knee surgery and doesn't do steps well so we asked for a ground floor room. We got our request and they had us just a couple of doors down from one of the back entrances. Unfortunately the key card reader on that door didn't work, so we had to walk through the entire building to reach our room. Breakfast is for purchase only and is expensive. Coffee too -- only Starbucks. We were charged for a pay-per-view movie which we didn't order, so be careful when you turn your TV on. The fee was refunded, but they acted like they didn't really believe we didn't order it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r200143585-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>200143585</t>
+  </si>
+  <si>
+    <t>04/06/2014</t>
+  </si>
+  <si>
+    <t>Clean and (mostly) welcoming</t>
+  </si>
+  <si>
+    <t>We had to visit Fort Worth last week, and someone else took care of our hotel arrangements. I will admit that after reading a few reviews, I was a little skeptical about staying here. Wow! What a nice surprise. This property is immaculate, the staff couldn't have been more welcoming. The room we were in was very quiet and comfortable (near an entrance and the pool), the mattress and pillows are great, Starbucks in the room. The property is within walking distance to several decent places to eat, shop and sightsee. My only issues with this hotel are bar and food. The bartender on duty was just short of rude, and I nearly passed out when she charged me $12 for a glass of cabernet (granted, it was LaCrema, but the whole bottle is $19) and I think it's downright chintzy of Marriott to charge people for breakfast. Can't even get a bagel for free. Food service is somewhat slow - it's tasty, but at $10 for some scrambled eggs and turkey sausage, it had better be tasty.MoreShow less</t>
+  </si>
+  <si>
+    <t>Colleen R, General Manager at Courtyard by Marriott Fort Worth University Drive, responded to this reviewResponded April 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2014</t>
+  </si>
+  <si>
+    <t>We had to visit Fort Worth last week, and someone else took care of our hotel arrangements. I will admit that after reading a few reviews, I was a little skeptical about staying here. Wow! What a nice surprise. This property is immaculate, the staff couldn't have been more welcoming. The room we were in was very quiet and comfortable (near an entrance and the pool), the mattress and pillows are great, Starbucks in the room. The property is within walking distance to several decent places to eat, shop and sightsee. My only issues with this hotel are bar and food. The bartender on duty was just short of rude, and I nearly passed out when she charged me $12 for a glass of cabernet (granted, it was LaCrema, but the whole bottle is $19) and I think it's downright chintzy of Marriott to charge people for breakfast. Can't even get a bagel for free. Food service is somewhat slow - it's tasty, but at $10 for some scrambled eggs and turkey sausage, it had better be tasty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r193538515-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>193538515</t>
+  </si>
+  <si>
+    <t>02/09/2014</t>
+  </si>
+  <si>
+    <t>Great location to TCU and Fort Worth!</t>
+  </si>
+  <si>
+    <t>I am travel agent and I am checking out of this hotel this morning after a very nice weekend stay.  My daughter and I stayed here on for her visit to TCU.  It is about a 5 minute drive to campus if that. I don't think there is a hotel closer to the campus and the staff is very nice.  It is right next to the river which has beautiful walking paths.
+As people have mentioned there are no elevators and it is only 2 floors. This was not a problem for us.  This courtyard has the new bistro format. It is located within walking distance to a Panera, a steak house, subway and others that I am surely missing.  It is across the street from a restaurant called the Woodshed.  All 3 coaches recommended the restaurant and it was  great suggestion. I highly recommend.  The pork ribs were amazing and the pulled pork.
+We stayed in a king suite on the courtyard.  People have mentioned the trains.  I am a light sleeper and I have to say I did not hear the trains when I was asleep but I did hear them when I was awake.  Not sure if I was really tired or they are just not loud enough to wake me up.
+The sink is located outside the bathroom which I like.  The toilet area and bathtub/shower area was small and the tile was out dated, but...I am travel agent and I am checking out of this hotel this morning after a very nice weekend stay.  My daughter and I stayed here on for her visit to TCU.  It is about a 5 minute drive to campus if that. I don't think there is a hotel closer to the campus and the staff is very nice.  It is right next to the river which has beautiful walking paths.As people have mentioned there are no elevators and it is only 2 floors. This was not a problem for us.  This courtyard has the new bistro format. It is located within walking distance to a Panera, a steak house, subway and others that I am surely missing.  It is across the street from a restaurant called the Woodshed.  All 3 coaches recommended the restaurant and it was  great suggestion. I highly recommend.  The pork ribs were amazing and the pulled pork.We stayed in a king suite on the courtyard.  People have mentioned the trains.  I am a light sleeper and I have to say I did not hear the trains when I was asleep but I did hear them when I was awake.  Not sure if I was really tired or they are just not loud enough to wake me up.The sink is located outside the bathroom which I like.  The toilet area and bathtub/shower area was small and the tile was out dated, but I really did not care. It was very clean.The only reason I did  not give this a 5 was because of stairs and bathrooms, but I would highly recommend this hotel and if my daughter goes to TCU this will be my hotel of choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Colleen R, General Manager at Courtyard by Marriott Fort Worth University Drive, responded to this reviewResponded February 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2014</t>
+  </si>
+  <si>
+    <t>I am travel agent and I am checking out of this hotel this morning after a very nice weekend stay.  My daughter and I stayed here on for her visit to TCU.  It is about a 5 minute drive to campus if that. I don't think there is a hotel closer to the campus and the staff is very nice.  It is right next to the river which has beautiful walking paths.
+As people have mentioned there are no elevators and it is only 2 floors. This was not a problem for us.  This courtyard has the new bistro format. It is located within walking distance to a Panera, a steak house, subway and others that I am surely missing.  It is across the street from a restaurant called the Woodshed.  All 3 coaches recommended the restaurant and it was  great suggestion. I highly recommend.  The pork ribs were amazing and the pulled pork.
+We stayed in a king suite on the courtyard.  People have mentioned the trains.  I am a light sleeper and I have to say I did not hear the trains when I was asleep but I did hear them when I was awake.  Not sure if I was really tired or they are just not loud enough to wake me up.
+The sink is located outside the bathroom which I like.  The toilet area and bathtub/shower area was small and the tile was out dated, but...I am travel agent and I am checking out of this hotel this morning after a very nice weekend stay.  My daughter and I stayed here on for her visit to TCU.  It is about a 5 minute drive to campus if that. I don't think there is a hotel closer to the campus and the staff is very nice.  It is right next to the river which has beautiful walking paths.As people have mentioned there are no elevators and it is only 2 floors. This was not a problem for us.  This courtyard has the new bistro format. It is located within walking distance to a Panera, a steak house, subway and others that I am surely missing.  It is across the street from a restaurant called the Woodshed.  All 3 coaches recommended the restaurant and it was  great suggestion. I highly recommend.  The pork ribs were amazing and the pulled pork.We stayed in a king suite on the courtyard.  People have mentioned the trains.  I am a light sleeper and I have to say I did not hear the trains when I was asleep but I did hear them when I was awake.  Not sure if I was really tired or they are just not loud enough to wake me up.The sink is located outside the bathroom which I like.  The toilet area and bathtub/shower area was small and the tile was out dated, but I really did not care. It was very clean.The only reason I did  not give this a 5 was because of stairs and bathrooms, but I would highly recommend this hotel and if my daughter goes to TCU this will be my hotel of choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r186200534-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>186200534</t>
+  </si>
+  <si>
+    <t>11/28/2013</t>
+  </si>
+  <si>
+    <t>Pretty &amp; Clean!</t>
+  </si>
+  <si>
+    <t>I'm so glad that we stayed here.  Not only was the room super clean, but the girls at the front desk were very sweet and accommodating.  This Marriott is conveniently located by TCU.  We walked to two restaurants on the same block (Panera Bread and Hoffbrau Steak House); great food!If available, be sure to ask for a room that faces their gated pool; very pretty!  We spent some time sitting by the fireplace; it's pretty there too.  It's true that they don't have an elevator for this 2 story hotel, so request a first floor room if using the stairs is inconvenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Colleen R, General Manager at Courtyard by Marriott Fort Worth University Drive, responded to this reviewResponded December 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2013</t>
+  </si>
+  <si>
+    <t>I'm so glad that we stayed here.  Not only was the room super clean, but the girls at the front desk were very sweet and accommodating.  This Marriott is conveniently located by TCU.  We walked to two restaurants on the same block (Panera Bread and Hoffbrau Steak House); great food!If available, be sure to ask for a room that faces their gated pool; very pretty!  We spent some time sitting by the fireplace; it's pretty there too.  It's true that they don't have an elevator for this 2 story hotel, so request a first floor room if using the stairs is inconvenient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r181983064-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>181983064</t>
+  </si>
+  <si>
+    <t>10/22/2013</t>
+  </si>
+  <si>
+    <t>They let the good (and bad) times roll...</t>
+  </si>
+  <si>
+    <t>went here for a football game at nearby Cowboy stadium - I know there are parties going on but was not prepared for the number of insanely drunk (I mean a busload) kids that came back to the hotel at about midnight - and continued to party on in the halls and lobby.  I also wasn't prepared for the nasty fights that broke out on my floor, starting at about 1 a.m. and finally ending at about 2:30.  Not getting to sleep until after 3 and really being afraid of what might or might not be going on, I'm not sure how I feel about this hotel. I KNOW it is not management's fault - but I think I would have felt better had they acknowledged what my terrifying night was like (I don't think I EVER stayed in a hotel and wondered when a bullet might come flying through the wall).  But no apologies - and even when I mentioned it to the desk the next day, all they said was, "Oh, we don't know anything about that."
+However, the place was clean - kudos to the extremely friendly women I met everywhere who were doing an excellent job of keeping the rooms spotless. And cheers also to the great women behind the snack bar who still waited on us - with a smile - when we were a few minutes late.  
+It's an okay place - but I...went here for a football game at nearby Cowboy stadium - I know there are parties going on but was not prepared for the number of insanely drunk (I mean a busload) kids that came back to the hotel at about midnight - and continued to party on in the halls and lobby.  I also wasn't prepared for the nasty fights that broke out on my floor, starting at about 1 a.m. and finally ending at about 2:30.  Not getting to sleep until after 3 and really being afraid of what might or might not be going on, I'm not sure how I feel about this hotel. I KNOW it is not management's fault - but I think I would have felt better had they acknowledged what my terrifying night was like (I don't think I EVER stayed in a hotel and wondered when a bullet might come flying through the wall).  But no apologies - and even when I mentioned it to the desk the next day, all they said was, "Oh, we don't know anything about that."However, the place was clean - kudos to the extremely friendly women I met everywhere who were doing an excellent job of keeping the rooms spotless. And cheers also to the great women behind the snack bar who still waited on us - with a smile - when we were a few minutes late.  It's an okay place - but I just wish management acknowledged that things got really, really out of hand.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>went here for a football game at nearby Cowboy stadium - I know there are parties going on but was not prepared for the number of insanely drunk (I mean a busload) kids that came back to the hotel at about midnight - and continued to party on in the halls and lobby.  I also wasn't prepared for the nasty fights that broke out on my floor, starting at about 1 a.m. and finally ending at about 2:30.  Not getting to sleep until after 3 and really being afraid of what might or might not be going on, I'm not sure how I feel about this hotel. I KNOW it is not management's fault - but I think I would have felt better had they acknowledged what my terrifying night was like (I don't think I EVER stayed in a hotel and wondered when a bullet might come flying through the wall).  But no apologies - and even when I mentioned it to the desk the next day, all they said was, "Oh, we don't know anything about that."
+However, the place was clean - kudos to the extremely friendly women I met everywhere who were doing an excellent job of keeping the rooms spotless. And cheers also to the great women behind the snack bar who still waited on us - with a smile - when we were a few minutes late.  
+It's an okay place - but I...went here for a football game at nearby Cowboy stadium - I know there are parties going on but was not prepared for the number of insanely drunk (I mean a busload) kids that came back to the hotel at about midnight - and continued to party on in the halls and lobby.  I also wasn't prepared for the nasty fights that broke out on my floor, starting at about 1 a.m. and finally ending at about 2:30.  Not getting to sleep until after 3 and really being afraid of what might or might not be going on, I'm not sure how I feel about this hotel. I KNOW it is not management's fault - but I think I would have felt better had they acknowledged what my terrifying night was like (I don't think I EVER stayed in a hotel and wondered when a bullet might come flying through the wall).  But no apologies - and even when I mentioned it to the desk the next day, all they said was, "Oh, we don't know anything about that."However, the place was clean - kudos to the extremely friendly women I met everywhere who were doing an excellent job of keeping the rooms spotless. And cheers also to the great women behind the snack bar who still waited on us - with a smile - when we were a few minutes late.  It's an okay place - but I just wish management acknowledged that things got really, really out of hand.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r181005091-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>181005091</t>
+  </si>
+  <si>
+    <t>10/14/2013</t>
+  </si>
+  <si>
+    <t>Excellent for TCU parents</t>
+  </si>
+  <si>
+    <t>I have a freshman at TCU and have stayed at this hotel 4 times in the last 6 months.  The service has been very good.  I like the renovated lounge and the ability to get breakfast, a snack or a glass of wine.  I wish the hotel would extend the hours.  There have been times I would have used the food service but, they were already closed.The pool is adequate.  It isn't special but it is clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Colleen R, General Manager at Courtyard by Marriott Fort Worth University Drive, responded to this reviewResponded October 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2013</t>
+  </si>
+  <si>
+    <t>I have a freshman at TCU and have stayed at this hotel 4 times in the last 6 months.  The service has been very good.  I like the renovated lounge and the ability to get breakfast, a snack or a glass of wine.  I wish the hotel would extend the hours.  There have been times I would have used the food service but, they were already closed.The pool is adequate.  It isn't special but it is clean.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r178210868-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
@@ -1066,9 +1556,6 @@
     <t>Great motel close to the TCU campus.  The rooms are clean and the staff is friendly.  The one downside is that there is no elevator so carrying the luggage up and down the stairs was a bit challenging.  Downstairs is "The Bistro" which serves breakfast and dinner, but the menu is limited and costly.  A bottle of orange juice that costs around a $1 in the grocery store cost $3 at The Bistro.  They do have Starbucks coffee but that menu selection is also limited.  Did experience a problem with check-in and payment since this was a business trip, I was told that it was already paid for but they didn't have the payment on file and even though payment was completed already by the company, I've still got the charges on my credit card.More</t>
   </si>
   <si>
-    <t>EthanPaul</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r165713130-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1093,9 +1580,6 @@
     <t>We loved this hotel!  The lobby was beautifully decorated.  We were able to buy a Starbucks coffee in the lobby to drink while we watched our sons swim in the indoor pool - which was a bit small but certainly met our needs. Our room was fantastic. High ceilings and modern fixtures really impressed.  The only negative was that we could hear the guests above us moving around, but otherwise a flawless stay. Definitely recommend.More</t>
   </si>
   <si>
-    <t>DEBBIE H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r157033069-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1105,9 +1589,6 @@
     <t>04/08/2013</t>
   </si>
   <si>
-    <t>Great location</t>
-  </si>
-  <si>
     <t>I stay here quite often because my daughter lives in the area and I love the location.  It is within walking distance to several really good restaurants, shopping, and Trinity Trails (walking, running, biking).  The Ft. Worth zoo, botanical gardens, cultural district, TCU, downtown and the Ft. Worth Stockyards are just a short distance away.  The rooms have recently been renovated and are comfortable.  The lack of an elevator is very inconvenient so request a first floor room.  The staff has always been friendly, courteous and very helpful.  I read many complaints regarding train noise.  Honestly, it is quite hard to find many places in Ft. Worth where one doesn't hear the trains because the tracks go through the middle of FW.  Maybe I have gotten used to them but I also don't go anywhere without ear plugs because of noise in most hotel halls at night.  This is a good place to stay for comfort, convenience and cost.MoreShow less</t>
   </si>
   <si>
@@ -1147,9 +1628,6 @@
     <t>This "hotel" is in a nice location near shopping and dining and not too far from TCU.... But it's a little odd. I did NOT read the reviews about no elevator and it just felt like, well, a motel. You check in at the front- cute lobby, but then get in your car, drive to the back and park. The card key worked 25% of the time. We had to have people let us in. When I told Mercedes at the front she let me know that it always works fine for her.  I thought this was an odd response. And after I walked away, as an afterthought, she added- but I'm sorry about that.If I go a great deal on this hotel I would stay again but not at $150 a night. (Which apparently was a lower rate thank usual). Boo, Marriott. Get some elevators by your lobby and get personal. I felt as if I was staying in an apartment complex. The rooms were identical to other courtyards so I wasn't disappointed there.More</t>
   </si>
   <si>
-    <t>TravelingJane22</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r154009118-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1177,9 +1655,6 @@
     <t>The reason to stay here is location. It's close to TCU and the Zoo, and there is a surprisingly terrific eatery called The Woodshed just a short walk behind the hotel on the river. But the hotel itself appears to be a renovated motel. The furnishings and decor than Marriott has overlayed are nice enough, but the bones are fairly 1960 and, as has been mentioned, no elevator to the second floor. There is a bistro that serves a nice breakfast and snacks throughout the day. It's fine for a short stay.More</t>
   </si>
   <si>
-    <t>jriley7531</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r153071700-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1204,9 +1679,6 @@
     <t>Well done update with a modern feel.  Colors in the lobby and cafe are very inviting and comfortable.  Don’t expect to get the room you request, as we asked for a ground floor king room on the inside patio for less noise, and was given upstairs room on outside.  They did change us after we asked, but still got outside handi-cap room.  Ugly shower to accommodate wheel-chairs. You are going to hear train whistles anywhere though -- many tracks close-by.  Great location for the Arts District and TCU.More</t>
   </si>
   <si>
-    <t>bathos13</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r144568659-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1234,9 +1706,6 @@
     <t>Typical Courtyard. Nice clean rooms, good lobby space, pretty quiet. Great location near the Zoo, Cultural District and TCU. Great running/biking trail along the river is just across the street. Staff was friendly and helpful. The hotel is 2 stories without an elevator, so plan accordingly (we had to switch rooms with my parents due to the stairs - front desk quickly switched us with no problems).More</t>
   </si>
   <si>
-    <t>AM0609</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r143871519-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1264,9 +1733,6 @@
     <t>I stayed at the Courtyard since I have come to enjoy their reasonable prices and comfortable atmosphere for business travel.  This courtyard seems to have been recently updated (I know that the outside of the building was being painted on the day of my departure).  One note:  This hotel does not have an elevator so dragging my large baggage up a flight of stairs was not ideal, but manageable.  The staff when I checked in was happy to help with my questions but when choosing a restaurant to go to in the area, the front desk woman simply pointed to the interactive screen.  Altough I consider myself technically savvy, it would have been more helpful for a few pointers from the employee on where to dine.  Will likely not stay there again because most of my appointments were near the airport and this was too long of a drive to be a central location.More</t>
   </si>
   <si>
-    <t>Kathleen B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r138365957-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1292,9 +1758,6 @@
   </si>
   <si>
     <t>I chose this Courtyard because I like to try to stay in Courtyard by Marriott hotels for a number of reasons.  This one met all of those, actually, so I have no complaint about my stay.  It's been updated like the cityview location but still seems a little old, but I'm not sure why... just the style of the building, I guess.  There is a nice size hotel pool at this location and there isn't a pool at the cityview, although there is a lovely putting green and patio area there.  I will probably stay here again because the location is closer to my daughter's homes but I think that the high mid week prices aren't justified for this particular location.More</t>
-  </si>
-  <si>
-    <t>tonypct</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r135479051-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
@@ -1329,9 +1792,6 @@
 There have been some reviewers complaining about the train noise....I stayed at this hotel for two nights while visiting my son, who lives nearby.  As a business traveler, I stay at many Courtyards and this one met my expectations.  The lobby has been renovated to reflect the new Courtyard motif, and they have added a cafe to now serve dinner, in addition to breakfast.  But as one reviewer already noted, there are plentyof places to eat breakfast, lunch and dinner all within walking distance.This is a convenient location, because of the closeness to restaurants, but also because it is close to TCU and the Fort Worth Zoo.  Being adjacent to the river also means there is a beautiful walking/hiking/biking trail that is easily accessible to those who stay here.Check in was quick and easy.  The room was a typical Courtyard room, with a king size bed that I had requested.  I thought the room was clean and I had no problems with spiders or any other insects in the room.  I did see where there is no elevator in this hotel.  This is only the second Courtyard where I've stayed without an elevator; the other being in Atlanta.  So if you are traveling with a lot of luggage, or you or someone else in your party needs access to an elevator, you should ask for a room on the first floor, or choose somewhere else to stay.There have been some reviewers complaining about the train noise.  Yes, this property is located very close to a major train yard with trains coming and going 24/7.  And as required by law, they must blow their whistles when they are coming up on a traffic crossing.  But my room faced the interior courtyard and with my air conditioner going, I never heard any train noise or whistles.  Plus, when I checked in, the front desk agent told me they were upgrading all the windows to make them noise proof.  I may have been in one of those recently renovated rooms.  I don't know and I didn't ask.Internet is free here.  There was a big screen HDTV with plenty of HD channels to choose from.  The lobby had free newspapers every day, including surprisingly, the rather big Sunday Fort Worth paper,I will be back visiting my son and I will definitely stay at this place again.  Just have to make sure it is not when TCU football is playing at home!More</t>
   </si>
   <si>
-    <t>KangaTex</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r131055184-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1353,9 +1813,6 @@
     <t>I stayed there on Marriott points, and it was worth what I paid. The rooms are a bit dark and the curtains had spiders in them. Otherwise, standard Marriott interior. The front desk staff was very friendly and took care of the spiders ASAP. Quiet and nice interior courtyard.More</t>
   </si>
   <si>
-    <t>DScotty</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r130806098-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1371,9 +1828,6 @@
     <t>This is your typical Marriott Courtyard fare. Recently renovated rooms and lobby. Friendly staff. Rather quiet despite a major PGA tournament across the street kept the hotel full. No reason to complain about breakfast or drink quality and cost because there are so many places within walking distance. This property is an upscale part of Ft Worth, yet you are less than 6 miles from the Stockyards, downtown, and TCU, botanic gardens, art museum, Trinity Trails (for biking and running), and the rest of the cultural district. We used to stay in the Stockyard area or downtown, but the University area is where we will stay from now on.</t>
   </si>
   <si>
-    <t>Txexterminator</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r130365744-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1392,9 +1846,6 @@
     <t>Best of the choices in the area,  boy are the trains loud at night.  Service is best part of stayMore</t>
   </si>
   <si>
-    <t>emily34331</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r129546953-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1416,7 +1867,94 @@
     <t>This is a very modern hotel with a great indoor pool! Took the kids to the zoo the day we spent the night, and it is a short little drive to the hotel. Also, good little restaurants around as well! Will be back!!More</t>
   </si>
   <si>
-    <t>FirstLast</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r123723065-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>123723065</t>
+  </si>
+  <si>
+    <t>01/27/2012</t>
+  </si>
+  <si>
+    <t>Sad excuse for a Marriott.</t>
+  </si>
+  <si>
+    <t>I guess being that it is a Marriott and the location of this Courtyard , I had great expectations. Where do I begin...the room smelled like sewage (guess b/c it is near the trinity river), the lights in the vanity area not working (this was resolved fairly quickly - kudos to the staff), and NOT CLEAN! Will not stay here again! MoreShow less</t>
+  </si>
+  <si>
+    <t>I guess being that it is a Marriott and the location of this Courtyard , I had great expectations. Where do I begin...the room smelled like sewage (guess b/c it is near the trinity river), the lights in the vanity area not working (this was resolved fairly quickly - kudos to the staff), and NOT CLEAN! Will not stay here again! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r123218073-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>123218073</t>
+  </si>
+  <si>
+    <t>01/17/2012</t>
+  </si>
+  <si>
+    <t>Decent room, decent location, decent price.</t>
+  </si>
+  <si>
+    <t>I've stayed here twice now, and it's been nice both times. The front desk people have been courteous, and the lobby/bistro/market area is lovely. The rooms are clean, although arranged a bit strangely, and the bathroom is a little small. We've missed the road to this hotel every single time. :) Also, some people will be bothered by the trains, but honestly I wasn't. If you're staying in the area, this is a nice place! I enjoyed the free internet and it's proximity to TCU, restaurants, activities, and freeways.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>I've stayed here twice now, and it's been nice both times. The front desk people have been courteous, and the lobby/bistro/market area is lovely. The rooms are clean, although arranged a bit strangely, and the bathroom is a little small. We've missed the road to this hotel every single time. :) Also, some people will be bothered by the trains, but honestly I wasn't. If you're staying in the area, this is a nice place! I enjoyed the free internet and it's proximity to TCU, restaurants, activities, and freeways.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r120377014-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>120377014</t>
+  </si>
+  <si>
+    <t>11/09/2011</t>
+  </si>
+  <si>
+    <t>Excellent Place to Stay in Ft. Worth</t>
+  </si>
+  <si>
+    <t>My wife &amp; I spent Friday night, November 4, 2011 at this hotel.  It is conveniently located to the campus of Texas Christian University.  It is also very close to a very nice shopping complex and numerous restaurants.  We asked for an accessible room as my wife is recovering from back surgery.  The room was great.  The decor was excellent.  The breakfast buffet was very good.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r117036138-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>117036138</t>
+  </si>
+  <si>
+    <t>08/21/2011</t>
+  </si>
+  <si>
+    <t>False advertisement</t>
+  </si>
+  <si>
+    <t>This hotel is advertised as having two types of rooms. According to their website both types feature a separate living area and a living room. As it turns out that is a LIE. We booked a room for a 2 night stay, thinking that my husband, son and I could comfortably sleep there. The room only had ONE bed and NO SOFABED.Our son had to sleep on the floor! We were very disappointing- and WILL NOT stay there again.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r116281641-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>116281641</t>
+  </si>
+  <si>
+    <t>08/04/2011</t>
+  </si>
+  <si>
+    <t>Newly Rennovated</t>
+  </si>
+  <si>
+    <t>Off the beaten path and convenient to great restaurant and neighborhood shopping. All within walking distance. Quite and up to date facility. I highly recommend for business with over ten computer's to use in their well equipped business center. Modern comfortable lobby with an excellent deli and bar.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r116118256-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
@@ -1437,9 +1975,6 @@
     <t>July 2011</t>
   </si>
   <si>
-    <t>mjd50</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r115535966-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1455,9 +1990,6 @@
     <t>I had a courtyard facing suite so I did not hear the trains. The suite was very nice, with fridge and microwave.Internet was pretty fast. There are power outlets by the bed.There isn't a breakfast buffet like most courtyards. There have a small cook-to-order bistro, which is fairly expensive. An egg/cheese/spinach/ham english muffin with OJ is $11. Better off going next door to the IHOP.The location is good (unless you can hear the trains).</t>
   </si>
   <si>
-    <t>x57114</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r115013151-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1473,9 +2005,6 @@
     <t xml:space="preserve">Average hotel in a decent location in the city. A bonus is how close it is to the river and it's trails. For Active people it's a great location to get your morning workout in with a decent view. Sometimes heard the trains as others reviewed but it's not as bad as they said. My only complaint is how late in the day the come to turn over your room. </t>
   </si>
   <si>
-    <t>greg9111</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r112963134-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1491,9 +2020,6 @@
     <t>Hotel is cursed with location. Bring your ear plugs. Trains toot all night. When I made a request for a courtyard room at the time of reserving the room, I was told they could not do it. My mistake. TCU visitors there are plenty of other choices.  Find one!</t>
   </si>
   <si>
-    <t>Iguana108</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r89824713-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1512,9 +2038,6 @@
     <t>December 2010</t>
   </si>
   <si>
-    <t>clv519</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r65491362-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1554,9 +2077,6 @@
     <t>April 2010</t>
   </si>
   <si>
-    <t>xNite</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r59974128-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1578,9 +2098,6 @@
     <t>We stayed here for three nights while visiting Family and were pleasantly surprised at the pure comfort of this Hotel. There's always complimentary coffee &amp; tea available at a 24hr beverage station. intenet &amp; printer service always available, and a 24hr fitness room with free weights &amp; a bench, treadmill, cardio elliptical machine, and stationary bike (all equipped with TV's). The best part is the Bistro where you can get a cocktail and chill in the unique lounge with flat panel TV's in each booth. The food is good, too. I had the Tomato Mozzarella hand made pizza and fell in love. Delicious! the pita chips and hummus is a good snack and there is always fresh fruit for sale. The staff is really nice and go out of their way to accommodate you. The hotel is conveniently located behind a steak house restaurant and a Pannini grill restaurant is next to that. The museum and river trail is walking distance. You can't go wrong here, especially on the first floor where you can walk right out of your rooms sliding doors into the pool! I can't wait to come back and visit. I will definitely be staying here again.More</t>
   </si>
   <si>
-    <t>derecat</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r46318712-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1599,9 +2116,6 @@
     <t>October 2009</t>
   </si>
   <si>
-    <t>shellfromtexas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r30743830-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1620,9 +2134,6 @@
     <t>May 2009</t>
   </si>
   <si>
-    <t>matt_tx00</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r27969509-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1644,9 +2155,6 @@
     <t>I stayed here for one night in Apr 2009 at the end of a business trip.  I booked it on Priceline the day of as a 3-star hotel for a $70 rate ($88 including fees).  I showed up like an hour later and checked in.  The hotel is about a 10 minute drive from downtown and just a few minutes from the TCU campus.  Its a little dated - just two stories - not your typical Courtyard.  However, it was fine inside - plenty clean quiet and nice, etc.  There was an outdoor pool as well.  Not sure if there was a fitness center.  Riverside Dr. right nearby there is a jogging trail which goes along the river.  There's a few restaurants nearby - Chili's, IHOP, Macaroni Grill - also a bunch of Pappas places right by I-30 not too far away.Oh yeah, parking is FREE - which you won't find in the downtown hotels.   The parking is outside but looks like a good area.  It also looked like they might have offered a breakfast too but I didn't partake.I participated in the Race for the Cure the next morning.  I was late getting back to the hotel that day, and they still let me check out around 1PM okay.  The front desk clerk was very helpful finding a good restaurant for lunch.More</t>
   </si>
   <si>
-    <t>happytrailsagain</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r25522168-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1668,9 +2176,6 @@
     <t>We stayed here for 2 nights while visiting TCU. It is very close to campus and there is a nice walking path right across the street. However, it was very pricey compared to most other hotels in town. Also, there was no elevator and it is a 2-story hotel. We had quite a few bags and they said there was no one to help us with our bags. The room was okay, nothing special. The internet was free. The front desk wasn't super helpful, but we didn't need too many services.Next trip, we will look for another hotel. Ft. Worth isn't that big of a town and even staying downtown doesn't add much time to a commute to campus.More</t>
   </si>
   <si>
-    <t>liroku</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r20575156-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1689,9 +2194,6 @@
     <t>Room was nice, everything seemed pretty new. Room felt clean and fresh. Nice non-smoking room. Didn't get a chance to check out the courtyard and pool, but it looked very pretty. Our room had a view of the back of a car wash... most rooms don't overlook the Trinity River. Bed was very comfortable--on the firm side, but my girl and I both prefer it. The lights in the room were kind of annoying--every lamp was fitted with a VERY BRIGHT 150-watt equivalent compact fluorescent bulb. They were too bright; I couldn't leave one on to read while my girl slept. Nothing is free here. $2 to drink the bottle of water they leave in the room. Breakfast is an additional charge--and is revolting. Don't bother, hit the Old South Pancake house just down the street. They're open 24-7, and their food is infinitely better than anything you'll get at the hotel. All in all, though, a good deal. Not a bad price for being that close to TCU and the rest of Fort Worth. You're close to some of the nicest attractions in town. I'd have no problem staying there again. I'd pass on the breakfast this time, though.More</t>
   </si>
   <si>
-    <t>CATHERINE85</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r17669917-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1710,9 +2212,6 @@
     <t>July 2008</t>
   </si>
   <si>
-    <t>Crawfish Boil</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r10654345-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1731,9 +2230,6 @@
     <t>October 2007</t>
   </si>
   <si>
-    <t>Vroom</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r3492676-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1750,9 +2246,6 @@
   </si>
   <si>
     <t>Stayed here in March while visiting TCU. I think this hotel is the closest if you are visiting the University. Nice staff, helpful, clean. Front desk was always very nice, helpful and offered me a candy from their candy bowl everytime I was at the front counter. I needed some help with their business center and the front desk person was great in aiding me. Didn't try their breakfast but it was offered at a charge. Parking was easy/no charge. Their weekend rate was fine but the weekly/business rate was a killer for getting nothing with. I would look for something else for a longer stay. A couple of restaurants within walking distance but you need your car for most. Needed to use room key to enter from outside, which I liked. Nice location on the riverfront. The train tracks are across University Dr. so you are close enough to hear the train at night but this hotel is further from the train than some. They took care of me, and I would stay there again.More</t>
-  </si>
-  <si>
-    <t>Steve421</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109187-r3325244-Courtyard_by_Marriott_Fort_Worth_University_Drive-Fort_Worth_Texas.html</t>
@@ -2278,258 +2771,222 @@
       <c r="A2" t="n">
         <v>27537</v>
       </c>
-      <c r="B2" t="n">
-        <v>127553</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
-      </c>
-      <c r="L2" t="s">
-        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>27537</v>
       </c>
-      <c r="B3" t="n">
-        <v>127554</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>66</v>
-      </c>
-      <c r="X3" t="s">
-        <v>67</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>27537</v>
       </c>
-      <c r="B4" t="n">
-        <v>28420</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
         <v>70</v>
-      </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" t="s">
-        <v>74</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O4" t="s">
-        <v>65</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>76</v>
-      </c>
-      <c r="X4" t="s">
-        <v>77</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>27537</v>
       </c>
-      <c r="B5" t="n">
-        <v>831</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="O5" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2543,64 +3000,60 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>27537</v>
       </c>
-      <c r="B6" t="n">
-        <v>127555</v>
-      </c>
-      <c r="C6" t="s">
-        <v>87</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -2608,256 +3061,238 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>27537</v>
       </c>
-      <c r="B7" t="n">
-        <v>127556</v>
-      </c>
-      <c r="C7" t="s">
-        <v>94</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>100</v>
-      </c>
-      <c r="O7" t="s">
-        <v>65</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>4</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>27537</v>
       </c>
-      <c r="B8" t="n">
-        <v>107905</v>
-      </c>
-      <c r="C8" t="s">
-        <v>101</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>94</v>
+      </c>
+      <c r="X8" t="s">
+        <v>95</v>
+      </c>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>27537</v>
       </c>
-      <c r="B9" t="n">
-        <v>127557</v>
-      </c>
-      <c r="C9" t="s">
-        <v>108</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>103</v>
+      </c>
+      <c r="X9" t="s">
+        <v>104</v>
+      </c>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>27537</v>
       </c>
-      <c r="B10" t="n">
-        <v>127558</v>
-      </c>
-      <c r="C10" t="s">
-        <v>114</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s">
-        <v>65</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
         <v>5</v>
@@ -2865,122 +3300,124 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>112</v>
+      </c>
+      <c r="X10" t="s">
+        <v>113</v>
+      </c>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>27537</v>
       </c>
-      <c r="B11" t="n">
-        <v>127559</v>
-      </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>121</v>
+      </c>
+      <c r="X11" t="s">
+        <v>122</v>
+      </c>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>27537</v>
       </c>
-      <c r="B12" t="n">
-        <v>44636</v>
-      </c>
-      <c r="C12" t="s">
-        <v>128</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="O12" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2994,251 +3431,235 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>27537</v>
       </c>
-      <c r="B13" t="n">
-        <v>127560</v>
-      </c>
-      <c r="C13" t="s">
-        <v>134</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J13" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="K13" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="O13" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
-        <v>3</v>
-      </c>
-      <c r="R13" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>140</v>
-      </c>
-      <c r="X13" t="s">
-        <v>141</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>27537</v>
       </c>
-      <c r="B14" t="n">
-        <v>26656</v>
-      </c>
-      <c r="C14" t="s">
-        <v>143</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="J14" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="K14" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
         <v>3</v>
       </c>
-      <c r="N14" t="s">
-        <v>149</v>
-      </c>
-      <c r="O14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>150</v>
-      </c>
-      <c r="X14" t="s">
-        <v>151</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>27537</v>
       </c>
-      <c r="B15" t="n">
-        <v>14385</v>
-      </c>
-      <c r="C15" t="s">
-        <v>153</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="K15" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="L15" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="O15" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>27537</v>
       </c>
-      <c r="B16" t="n">
-        <v>57808</v>
-      </c>
-      <c r="C16" t="s">
-        <v>161</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="J16" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="K16" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="L16" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="O16" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3249,70 +3670,62 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>167</v>
-      </c>
-      <c r="X16" t="s">
-        <v>168</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>27537</v>
       </c>
-      <c r="B17" t="n">
-        <v>98347</v>
-      </c>
-      <c r="C17" t="s">
-        <v>170</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="J17" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="K17" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="L17" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="O17" t="s">
-        <v>65</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
         <v>5</v>
@@ -3323,259 +3736,235 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>27537</v>
       </c>
-      <c r="B18" t="n">
-        <v>127561</v>
-      </c>
-      <c r="C18" t="s">
-        <v>178</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="J18" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="L18" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="O18" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>185</v>
-      </c>
-      <c r="X18" t="s">
-        <v>186</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>27537</v>
       </c>
-      <c r="B19" t="n">
-        <v>127562</v>
-      </c>
-      <c r="C19" t="s">
-        <v>188</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="J19" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="K19" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="O19" t="s">
-        <v>65</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>4</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>195</v>
-      </c>
-      <c r="X19" t="s">
-        <v>196</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>27537</v>
       </c>
-      <c r="B20" t="n">
-        <v>127563</v>
-      </c>
-      <c r="C20" t="s">
-        <v>198</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="J20" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="K20" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="L20" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="O20" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
       <c r="R20" t="n">
         <v>4</v>
       </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="X20" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="Y20" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>27537</v>
       </c>
-      <c r="B21" t="n">
-        <v>2124</v>
-      </c>
-      <c r="C21" t="s">
-        <v>207</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="J21" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="K21" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="O21" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3587,60 +3976,56 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="X21" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="Y21" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>27537</v>
       </c>
-      <c r="B22" t="n">
-        <v>127564</v>
-      </c>
-      <c r="C22" t="s">
-        <v>215</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="J22" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="K22" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="L22" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="O22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3651,131 +4036,121 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>222</v>
-      </c>
-      <c r="X22" t="s">
-        <v>223</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>27537</v>
       </c>
-      <c r="B23" t="n">
-        <v>4976</v>
-      </c>
-      <c r="C23" t="s">
-        <v>225</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="J23" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="K23" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="L23" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="O23" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>4</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>198</v>
+      </c>
+      <c r="X23" t="s">
+        <v>199</v>
+      </c>
       <c r="Y23" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>27537</v>
       </c>
-      <c r="B24" t="n">
-        <v>127565</v>
-      </c>
-      <c r="C24" t="s">
-        <v>232</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="J24" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="K24" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="L24" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="O24" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
@@ -3788,234 +4163,244 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>27537</v>
       </c>
-      <c r="B25" t="n">
-        <v>127566</v>
-      </c>
-      <c r="C25" t="s">
-        <v>239</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="J25" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="K25" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="O25" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
-      <c r="S25" t="n">
-        <v>4</v>
-      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>4</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>214</v>
+      </c>
+      <c r="X25" t="s">
+        <v>215</v>
+      </c>
       <c r="Y25" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>27537</v>
       </c>
-      <c r="B26" t="n">
-        <v>127567</v>
-      </c>
-      <c r="C26" t="s">
-        <v>246</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="J26" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="K26" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="L26" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
-      </c>
-      <c r="N26" t="s"/>
-      <c r="O26" t="s"/>
-      <c r="P26" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>222</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>223</v>
+      </c>
+      <c r="X26" t="s">
+        <v>224</v>
+      </c>
       <c r="Y26" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>27537</v>
       </c>
-      <c r="B27" t="n">
-        <v>127568</v>
-      </c>
-      <c r="C27" t="s">
-        <v>253</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="J27" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="K27" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="O27" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>231</v>
+      </c>
+      <c r="X27" t="s">
+        <v>232</v>
+      </c>
       <c r="Y27" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>27537</v>
       </c>
-      <c r="B28" t="n">
-        <v>127569</v>
-      </c>
-      <c r="C28" t="s">
-        <v>259</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="J28" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="K28" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="L28" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>239</v>
+      </c>
+      <c r="O28" t="s">
+        <v>63</v>
+      </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
@@ -4025,136 +4410,130 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>231</v>
+      </c>
+      <c r="X28" t="s">
+        <v>232</v>
+      </c>
       <c r="Y28" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>27537</v>
       </c>
-      <c r="B29" t="n">
-        <v>127570</v>
-      </c>
-      <c r="C29" t="s">
-        <v>266</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="J29" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="K29" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="L29" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="O29" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>247</v>
+      </c>
+      <c r="X29" t="s">
+        <v>248</v>
+      </c>
       <c r="Y29" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>27537</v>
       </c>
-      <c r="B30" t="n">
-        <v>24215</v>
-      </c>
-      <c r="C30" t="s">
-        <v>273</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="J30" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="K30" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="L30" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="O30" t="s">
-        <v>54</v>
-      </c>
-      <c r="P30" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
       <c r="Q30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R30" t="s"/>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -4162,125 +4541,119 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>27537</v>
       </c>
-      <c r="B31" t="n">
-        <v>127571</v>
-      </c>
-      <c r="C31" t="s">
-        <v>280</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="J31" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="K31" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="L31" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="O31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>260</v>
+      </c>
+      <c r="X31" t="s">
+        <v>261</v>
+      </c>
       <c r="Y31" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>27537</v>
       </c>
-      <c r="B32" t="n">
-        <v>127572</v>
-      </c>
-      <c r="C32" t="s">
-        <v>287</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="J32" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="K32" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="L32" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="O32" t="s">
-        <v>86</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
       <c r="S32" t="n">
@@ -4293,273 +4666,251 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>260</v>
+      </c>
+      <c r="X32" t="s">
+        <v>261</v>
+      </c>
       <c r="Y32" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>27537</v>
       </c>
-      <c r="B33" t="n">
-        <v>80644</v>
-      </c>
-      <c r="C33" t="s">
-        <v>295</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="J33" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="K33" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="L33" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="O33" t="s">
-        <v>86</v>
-      </c>
-      <c r="P33" t="s"/>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>275</v>
+      </c>
+      <c r="X33" t="s">
+        <v>276</v>
+      </c>
       <c r="Y33" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>27537</v>
       </c>
-      <c r="B34" t="n">
-        <v>127573</v>
-      </c>
-      <c r="C34" t="s">
-        <v>303</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="J34" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="K34" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="L34" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="O34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
-      <c r="R34" t="n">
-        <v>3</v>
-      </c>
-      <c r="S34" t="n">
-        <v>3</v>
-      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>2</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="X34" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="Y34" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>27537</v>
       </c>
-      <c r="B35" t="n">
-        <v>127574</v>
-      </c>
-      <c r="C35" t="s">
-        <v>312</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="J35" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="K35" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="L35" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
-      </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>290</v>
+      </c>
+      <c r="O35" t="s">
+        <v>70</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
       <c r="S35" t="n">
         <v>5</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s">
-        <v>309</v>
-      </c>
-      <c r="X35" t="s">
-        <v>310</v>
-      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>27537</v>
       </c>
-      <c r="B36" t="n">
-        <v>83844</v>
-      </c>
-      <c r="C36" t="s">
-        <v>319</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="J36" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="K36" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="L36" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="O36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
       </c>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
@@ -4569,89 +4920,71 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>326</v>
-      </c>
-      <c r="X36" t="s">
-        <v>327</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>27537</v>
       </c>
-      <c r="B37" t="n">
-        <v>127575</v>
-      </c>
-      <c r="C37" t="s">
-        <v>329</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="J37" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="K37" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="L37" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="O37" t="s">
-        <v>86</v>
-      </c>
-      <c r="P37" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
       <c r="S37" t="n">
         <v>4</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s">
-        <v>336</v>
-      </c>
-      <c r="X37" t="s">
-        <v>337</v>
-      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38">
@@ -4664,211 +4997,157 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="J38" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="K38" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="L38" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
-      <c r="N38" t="s">
-        <v>344</v>
-      </c>
-      <c r="O38" t="s">
-        <v>86</v>
-      </c>
-      <c r="P38" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>4</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>4</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s">
-        <v>345</v>
-      </c>
-      <c r="X38" t="s">
-        <v>346</v>
-      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>27537</v>
       </c>
-      <c r="B39" t="n">
-        <v>127576</v>
-      </c>
-      <c r="C39" t="s">
-        <v>348</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="J39" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="K39" t="s">
-        <v>352</v>
+        <v>312</v>
       </c>
       <c r="L39" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
-      <c r="N39" t="s"/>
-      <c r="O39" t="s"/>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>4</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+      <c r="N39" t="s">
+        <v>302</v>
+      </c>
+      <c r="O39" t="s">
+        <v>70</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>354</v>
-      </c>
-      <c r="X39" t="s">
-        <v>355</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>27537</v>
       </c>
-      <c r="B40" t="n">
-        <v>127577</v>
-      </c>
-      <c r="C40" t="s">
-        <v>357</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>359</v>
+        <v>315</v>
       </c>
       <c r="J40" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="K40" t="s">
-        <v>361</v>
+        <v>317</v>
       </c>
       <c r="L40" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
-      </c>
-      <c r="N40" t="s">
-        <v>363</v>
-      </c>
-      <c r="O40" t="s">
-        <v>54</v>
-      </c>
-      <c r="P40" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>4</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>364</v>
-      </c>
-      <c r="X40" t="s">
-        <v>365</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41">
@@ -4881,190 +5160,166 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>367</v>
+        <v>320</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>368</v>
+        <v>321</v>
       </c>
       <c r="J41" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
       <c r="K41" t="s">
-        <v>370</v>
+        <v>323</v>
       </c>
       <c r="L41" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
-      <c r="N41" t="s"/>
-      <c r="O41" t="s"/>
-      <c r="P41" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>4</v>
-      </c>
+      <c r="N41" t="s">
+        <v>325</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
       <c r="R41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
-        <v>372</v>
-      </c>
-      <c r="X41" t="s">
-        <v>373</v>
-      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>374</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>27537</v>
       </c>
-      <c r="B42" t="n">
-        <v>127578</v>
-      </c>
-      <c r="C42" t="s">
-        <v>375</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>376</v>
+        <v>326</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>377</v>
+        <v>327</v>
       </c>
       <c r="J42" t="s">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="K42" t="s">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="L42" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="M42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
       <c r="O42" t="s">
-        <v>86</v>
-      </c>
-      <c r="P42" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="n">
-        <v>3</v>
-      </c>
-      <c r="R42" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R42" t="s"/>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
-        <v>382</v>
-      </c>
-      <c r="X42" t="s">
-        <v>383</v>
-      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>384</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>27537</v>
       </c>
-      <c r="B43" t="n">
-        <v>127579</v>
-      </c>
-      <c r="C43" t="s">
-        <v>385</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>386</v>
+        <v>332</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>387</v>
+        <v>333</v>
       </c>
       <c r="J43" t="s">
-        <v>388</v>
+        <v>334</v>
       </c>
       <c r="K43" t="s">
-        <v>389</v>
+        <v>335</v>
       </c>
       <c r="L43" t="s">
-        <v>390</v>
+        <v>336</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>381</v>
+        <v>337</v>
       </c>
       <c r="O43" t="s">
-        <v>54</v>
-      </c>
-      <c r="P43" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
       <c r="R43" t="n">
         <v>5</v>
       </c>
@@ -5073,154 +5328,128 @@
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s">
-        <v>391</v>
-      </c>
-      <c r="X43" t="s">
-        <v>392</v>
-      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>393</v>
+        <v>336</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>27537</v>
       </c>
-      <c r="B44" t="n">
-        <v>127580</v>
-      </c>
-      <c r="C44" t="s">
-        <v>394</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>395</v>
+        <v>338</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>396</v>
+        <v>339</v>
       </c>
       <c r="J44" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="K44" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="L44" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
       <c r="O44" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="P44" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>3</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
       <c r="S44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s">
-        <v>401</v>
-      </c>
-      <c r="X44" t="s">
-        <v>402</v>
-      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>403</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>27537</v>
       </c>
-      <c r="B45" t="n">
-        <v>127581</v>
-      </c>
-      <c r="C45" t="s">
-        <v>404</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>405</v>
+        <v>345</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>406</v>
+        <v>346</v>
       </c>
       <c r="J45" t="s">
-        <v>407</v>
+        <v>347</v>
       </c>
       <c r="K45" t="s">
-        <v>408</v>
+        <v>348</v>
       </c>
       <c r="L45" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="O45" t="s">
-        <v>86</v>
-      </c>
-      <c r="P45" t="n">
+        <v>63</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
         <v>3</v>
       </c>
-      <c r="Q45" t="n">
-        <v>4</v>
-      </c>
-      <c r="R45" t="n">
-        <v>4</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4</v>
-      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
         <v>3</v>
@@ -5228,302 +5457,258 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s">
-        <v>411</v>
-      </c>
-      <c r="X45" t="s">
-        <v>412</v>
-      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>413</v>
+        <v>351</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>27537</v>
       </c>
-      <c r="B46" t="n">
-        <v>4541</v>
-      </c>
-      <c r="C46" t="s">
-        <v>414</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>415</v>
+        <v>352</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>416</v>
+        <v>353</v>
       </c>
       <c r="J46" t="s">
-        <v>417</v>
+        <v>354</v>
       </c>
       <c r="K46" t="s">
-        <v>418</v>
+        <v>355</v>
       </c>
       <c r="L46" t="s">
-        <v>419</v>
+        <v>356</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>420</v>
+        <v>357</v>
       </c>
       <c r="O46" t="s">
-        <v>65</v>
-      </c>
-      <c r="P46" t="n">
-        <v>2</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P46" t="s"/>
       <c r="Q46" t="n">
-        <v>3</v>
-      </c>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R46" t="s"/>
       <c r="S46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>421</v>
+        <v>358</v>
       </c>
       <c r="X46" t="s">
-        <v>422</v>
+        <v>359</v>
       </c>
       <c r="Y46" t="s">
-        <v>423</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>27537</v>
       </c>
-      <c r="B47" t="n">
-        <v>127582</v>
-      </c>
-      <c r="C47" t="s">
-        <v>424</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>425</v>
+        <v>361</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>426</v>
+        <v>362</v>
       </c>
       <c r="J47" t="s">
-        <v>427</v>
+        <v>363</v>
       </c>
       <c r="K47" t="s">
-        <v>428</v>
+        <v>364</v>
       </c>
       <c r="L47" t="s">
-        <v>429</v>
+        <v>365</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>430</v>
+        <v>366</v>
       </c>
       <c r="O47" t="s">
-        <v>431</v>
-      </c>
-      <c r="P47" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
       <c r="Q47" t="n">
-        <v>4</v>
-      </c>
-      <c r="R47" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R47" t="s"/>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s">
-        <v>421</v>
-      </c>
-      <c r="X47" t="s">
-        <v>422</v>
-      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>432</v>
+        <v>365</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>27537</v>
       </c>
-      <c r="B48" t="n">
-        <v>127583</v>
-      </c>
-      <c r="C48" t="s">
-        <v>433</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>434</v>
+        <v>367</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>435</v>
+        <v>368</v>
       </c>
       <c r="J48" t="s">
-        <v>436</v>
+        <v>369</v>
       </c>
       <c r="K48" t="s">
-        <v>437</v>
+        <v>370</v>
       </c>
       <c r="L48" t="s">
-        <v>438</v>
+        <v>371</v>
       </c>
       <c r="M48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>439</v>
+        <v>372</v>
       </c>
       <c r="O48" t="s">
-        <v>86</v>
-      </c>
-      <c r="P48" t="n">
-        <v>3</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="P48" t="s"/>
       <c r="Q48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s">
-        <v>421</v>
-      </c>
-      <c r="X48" t="s">
-        <v>422</v>
-      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>440</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>27537</v>
       </c>
-      <c r="B49" t="n">
-        <v>127584</v>
-      </c>
-      <c r="C49" t="s">
-        <v>441</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>442</v>
+        <v>373</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>443</v>
+        <v>374</v>
       </c>
       <c r="J49" t="s">
-        <v>444</v>
+        <v>375</v>
       </c>
       <c r="K49" t="s">
-        <v>445</v>
+        <v>376</v>
       </c>
       <c r="L49" t="s">
-        <v>446</v>
+        <v>377</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>439</v>
+        <v>378</v>
       </c>
       <c r="O49" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="P49" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>4</v>
-      </c>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
       <c r="S49" t="n">
         <v>5</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -5531,331 +5716,315 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>446</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>27537</v>
       </c>
-      <c r="B50" t="n">
-        <v>127585</v>
-      </c>
-      <c r="C50" t="s">
-        <v>447</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>448</v>
+        <v>380</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>449</v>
+        <v>381</v>
       </c>
       <c r="J50" t="s">
-        <v>450</v>
+        <v>382</v>
       </c>
       <c r="K50" t="s">
-        <v>451</v>
+        <v>383</v>
       </c>
       <c r="L50" t="s">
-        <v>452</v>
+        <v>384</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
-      <c r="N50" t="s"/>
-      <c r="O50" t="s"/>
-      <c r="P50" t="n">
-        <v>3</v>
-      </c>
+      <c r="N50" t="s">
+        <v>385</v>
+      </c>
+      <c r="O50" t="s">
+        <v>70</v>
+      </c>
+      <c r="P50" t="s"/>
       <c r="Q50" t="n">
         <v>4</v>
       </c>
       <c r="R50" t="n">
-        <v>4</v>
-      </c>
-      <c r="S50" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s">
-        <v>421</v>
-      </c>
-      <c r="X50" t="s">
-        <v>422</v>
-      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>453</v>
+        <v>386</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>27537</v>
       </c>
-      <c r="B51" t="n">
-        <v>127586</v>
-      </c>
-      <c r="C51" t="s">
-        <v>454</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>455</v>
+        <v>387</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>456</v>
+        <v>388</v>
       </c>
       <c r="J51" t="s">
-        <v>457</v>
+        <v>389</v>
       </c>
       <c r="K51" t="s">
-        <v>458</v>
+        <v>390</v>
       </c>
       <c r="L51" t="s">
-        <v>459</v>
+        <v>391</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>460</v>
+        <v>385</v>
       </c>
       <c r="O51" t="s">
-        <v>65</v>
-      </c>
-      <c r="P51" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
       <c r="R51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="X51" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="Y51" t="s">
-        <v>461</v>
+        <v>394</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>27537</v>
       </c>
-      <c r="B52" t="n">
-        <v>127587</v>
-      </c>
-      <c r="C52" t="s">
-        <v>462</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>463</v>
+        <v>395</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>464</v>
+        <v>396</v>
       </c>
       <c r="J52" t="s">
-        <v>465</v>
+        <v>397</v>
       </c>
       <c r="K52" t="s">
-        <v>466</v>
+        <v>398</v>
       </c>
       <c r="L52" t="s">
-        <v>467</v>
+        <v>399</v>
       </c>
       <c r="M52" t="n">
-        <v>3</v>
-      </c>
-      <c r="N52" t="s">
-        <v>468</v>
-      </c>
-      <c r="O52" t="s">
-        <v>65</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
       <c r="P52" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q52" t="s"/>
-      <c r="R52" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
       <c r="S52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>392</v>
+      </c>
+      <c r="X52" t="s">
+        <v>393</v>
+      </c>
       <c r="Y52" t="s">
-        <v>467</v>
+        <v>400</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>27537</v>
       </c>
-      <c r="B53" t="n">
-        <v>92098</v>
-      </c>
-      <c r="C53" t="s">
-        <v>469</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>470</v>
+        <v>401</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>471</v>
+        <v>402</v>
       </c>
       <c r="J53" t="s">
-        <v>472</v>
+        <v>403</v>
       </c>
       <c r="K53" t="s">
-        <v>473</v>
+        <v>404</v>
       </c>
       <c r="L53" t="s">
-        <v>474</v>
+        <v>405</v>
       </c>
       <c r="M53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>468</v>
+        <v>406</v>
       </c>
       <c r="O53" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="P53" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q53" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
       <c r="R53" t="s"/>
-      <c r="S53" t="n">
-        <v>4</v>
-      </c>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
+      <c r="W53" t="s">
+        <v>407</v>
+      </c>
+      <c r="X53" t="s">
+        <v>408</v>
+      </c>
       <c r="Y53" t="s">
-        <v>474</v>
+        <v>409</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>27537</v>
       </c>
-      <c r="B54" t="n">
-        <v>127588</v>
-      </c>
-      <c r="C54" t="s">
-        <v>475</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>476</v>
+        <v>410</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>477</v>
+        <v>411</v>
       </c>
       <c r="J54" t="s">
-        <v>478</v>
+        <v>412</v>
       </c>
       <c r="K54" t="s">
-        <v>479</v>
+        <v>413</v>
       </c>
       <c r="L54" t="s">
-        <v>480</v>
+        <v>414</v>
       </c>
       <c r="M54" t="n">
-        <v>4</v>
-      </c>
-      <c r="N54" t="s"/>
-      <c r="O54" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>415</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
       <c r="P54" t="n">
         <v>3</v>
       </c>
@@ -5863,7 +6032,7 @@
         <v>3</v>
       </c>
       <c r="R54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S54" t="n">
         <v>4</v>
@@ -5875,56 +6044,60 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>416</v>
+      </c>
+      <c r="X54" t="s">
+        <v>417</v>
+      </c>
       <c r="Y54" t="s">
-        <v>480</v>
+        <v>418</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>27537</v>
       </c>
-      <c r="B55" t="n">
-        <v>127589</v>
-      </c>
-      <c r="C55" t="s">
-        <v>481</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>482</v>
+        <v>419</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>483</v>
+        <v>420</v>
       </c>
       <c r="J55" t="s">
-        <v>484</v>
+        <v>421</v>
       </c>
       <c r="K55" t="s">
-        <v>485</v>
+        <v>422</v>
       </c>
       <c r="L55" t="s">
-        <v>486</v>
+        <v>423</v>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="s"/>
-      <c r="O55" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>415</v>
+      </c>
+      <c r="O55" t="s">
+        <v>63</v>
+      </c>
       <c r="P55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q55" t="n">
         <v>3</v>
@@ -5937,68 +6110,68 @@
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>424</v>
+      </c>
+      <c r="X55" t="s">
+        <v>425</v>
+      </c>
       <c r="Y55" t="s">
-        <v>486</v>
+        <v>426</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>27537</v>
       </c>
-      <c r="B56" t="n">
-        <v>127590</v>
-      </c>
-      <c r="C56" t="s">
-        <v>487</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>488</v>
+        <v>427</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>489</v>
+        <v>428</v>
       </c>
       <c r="J56" t="s">
-        <v>490</v>
+        <v>429</v>
       </c>
       <c r="K56" t="s">
-        <v>491</v>
+        <v>430</v>
       </c>
       <c r="L56" t="s">
-        <v>492</v>
+        <v>431</v>
       </c>
       <c r="M56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>493</v>
+        <v>415</v>
       </c>
       <c r="O56" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R56" t="n">
         <v>5</v>
@@ -6013,81 +6186,85 @@
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
+      <c r="W56" t="s">
+        <v>424</v>
+      </c>
+      <c r="X56" t="s">
+        <v>425</v>
+      </c>
       <c r="Y56" t="s">
-        <v>492</v>
+        <v>432</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>27537</v>
       </c>
-      <c r="B57" t="n">
-        <v>127591</v>
-      </c>
-      <c r="C57" t="s">
-        <v>494</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>495</v>
+        <v>433</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>496</v>
+        <v>434</v>
       </c>
       <c r="J57" t="s">
-        <v>497</v>
+        <v>435</v>
       </c>
       <c r="K57" t="s">
-        <v>498</v>
+        <v>436</v>
       </c>
       <c r="L57" t="s">
-        <v>499</v>
+        <v>437</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="O57" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="P57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
+      <c r="W57" t="s">
+        <v>424</v>
+      </c>
+      <c r="X57" t="s">
+        <v>425</v>
+      </c>
       <c r="Y57" t="s">
-        <v>501</v>
+        <v>439</v>
       </c>
     </row>
     <row r="58">
@@ -6100,49 +6277,49 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>503</v>
+        <v>441</v>
       </c>
       <c r="J58" t="s">
-        <v>504</v>
+        <v>442</v>
       </c>
       <c r="K58" t="s">
-        <v>505</v>
+        <v>443</v>
       </c>
       <c r="L58" t="s">
-        <v>506</v>
+        <v>444</v>
       </c>
       <c r="M58" t="n">
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>507</v>
+        <v>438</v>
       </c>
       <c r="O58" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
       </c>
       <c r="Q58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R58" t="n">
         <v>4</v>
       </c>
       <c r="S58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
@@ -6151,69 +6328,69 @@
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
+      <c r="W58" t="s">
+        <v>445</v>
+      </c>
+      <c r="X58" t="s">
+        <v>446</v>
+      </c>
       <c r="Y58" t="s">
-        <v>506</v>
+        <v>447</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>27537</v>
       </c>
-      <c r="B59" t="n">
-        <v>127592</v>
-      </c>
-      <c r="C59" t="s">
-        <v>508</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>509</v>
+        <v>448</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="J59" t="s">
-        <v>511</v>
+        <v>450</v>
       </c>
       <c r="K59" t="s">
-        <v>512</v>
+        <v>451</v>
       </c>
       <c r="L59" t="s">
-        <v>513</v>
+        <v>452</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>514</v>
+        <v>438</v>
       </c>
       <c r="O59" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="P59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R59" t="n">
         <v>5</v>
       </c>
       <c r="S59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
@@ -6222,424 +6399,414 @@
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
+      <c r="W59" t="s">
+        <v>453</v>
+      </c>
+      <c r="X59" t="s">
+        <v>454</v>
+      </c>
       <c r="Y59" t="s">
-        <v>515</v>
+        <v>455</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>27537</v>
       </c>
-      <c r="B60" t="n">
-        <v>127593</v>
-      </c>
-      <c r="C60" t="s">
-        <v>516</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>517</v>
+        <v>456</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>518</v>
+        <v>457</v>
       </c>
       <c r="J60" t="s">
-        <v>519</v>
+        <v>458</v>
       </c>
       <c r="K60" t="s">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="L60" t="s">
-        <v>521</v>
+        <v>460</v>
       </c>
       <c r="M60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>522</v>
+        <v>461</v>
       </c>
       <c r="O60" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
+      <c r="W60" t="s">
+        <v>462</v>
+      </c>
+      <c r="X60" t="s">
+        <v>463</v>
+      </c>
       <c r="Y60" t="s">
-        <v>521</v>
+        <v>464</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>27537</v>
       </c>
-      <c r="B61" t="n">
-        <v>127594</v>
-      </c>
-      <c r="C61" t="s">
-        <v>523</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>524</v>
+        <v>465</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>525</v>
+        <v>466</v>
       </c>
       <c r="J61" t="s">
-        <v>526</v>
+        <v>467</v>
       </c>
       <c r="K61" t="s">
-        <v>527</v>
+        <v>468</v>
       </c>
       <c r="L61" t="s">
-        <v>528</v>
+        <v>469</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>529</v>
+        <v>470</v>
       </c>
       <c r="O61" t="s">
-        <v>54</v>
-      </c>
-      <c r="P61" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>5</v>
-      </c>
-      <c r="R61" t="n">
-        <v>5</v>
-      </c>
-      <c r="S61" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
       <c r="T61" t="s"/>
-      <c r="U61" t="n">
-        <v>5</v>
-      </c>
+      <c r="U61" t="s"/>
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
+      <c r="W61" t="s">
+        <v>471</v>
+      </c>
+      <c r="X61" t="s">
+        <v>472</v>
+      </c>
       <c r="Y61" t="s">
-        <v>528</v>
+        <v>473</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>27537</v>
       </c>
-      <c r="B62" t="n">
-        <v>127595</v>
-      </c>
-      <c r="C62" t="s">
-        <v>530</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>531</v>
+        <v>474</v>
       </c>
       <c r="G62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>532</v>
+        <v>475</v>
       </c>
       <c r="J62" t="s">
-        <v>533</v>
+        <v>476</v>
       </c>
       <c r="K62" t="s">
-        <v>534</v>
+        <v>477</v>
       </c>
       <c r="L62" t="s">
-        <v>535</v>
+        <v>478</v>
       </c>
       <c r="M62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>536</v>
+        <v>479</v>
       </c>
       <c r="O62" t="s">
-        <v>431</v>
+        <v>63</v>
       </c>
       <c r="P62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S62" t="n">
         <v>4</v>
       </c>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
+      <c r="W62" t="s">
+        <v>471</v>
+      </c>
+      <c r="X62" t="s">
+        <v>472</v>
+      </c>
       <c r="Y62" t="s">
-        <v>537</v>
+        <v>480</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>27537</v>
       </c>
-      <c r="B63" t="n">
-        <v>127596</v>
-      </c>
-      <c r="C63" t="s">
-        <v>538</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>539</v>
+        <v>481</v>
       </c>
       <c r="G63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>540</v>
+        <v>482</v>
       </c>
       <c r="J63" t="s">
-        <v>541</v>
+        <v>483</v>
       </c>
       <c r="K63" t="s">
-        <v>542</v>
+        <v>484</v>
       </c>
       <c r="L63" t="s">
-        <v>543</v>
+        <v>485</v>
       </c>
       <c r="M63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>544</v>
+        <v>486</v>
       </c>
       <c r="O63" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
+      <c r="W63" t="s">
+        <v>487</v>
+      </c>
+      <c r="X63" t="s">
+        <v>488</v>
+      </c>
       <c r="Y63" t="s">
-        <v>545</v>
+        <v>489</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>27537</v>
       </c>
-      <c r="B64" t="n">
-        <v>127597</v>
-      </c>
-      <c r="C64" t="s">
-        <v>546</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>547</v>
+        <v>490</v>
       </c>
       <c r="G64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>548</v>
+        <v>491</v>
       </c>
       <c r="J64" t="s">
-        <v>549</v>
+        <v>492</v>
       </c>
       <c r="K64" t="s">
-        <v>550</v>
+        <v>493</v>
       </c>
       <c r="L64" t="s">
-        <v>551</v>
+        <v>494</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>544</v>
+        <v>495</v>
       </c>
       <c r="O64" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
       </c>
       <c r="Q64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
+      <c r="W64" t="s">
+        <v>496</v>
+      </c>
+      <c r="X64" t="s">
+        <v>497</v>
+      </c>
       <c r="Y64" t="s">
-        <v>552</v>
+        <v>498</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>27537</v>
       </c>
-      <c r="B65" t="n">
-        <v>127598</v>
-      </c>
-      <c r="C65" t="s">
-        <v>553</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>554</v>
+        <v>499</v>
       </c>
       <c r="G65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>555</v>
+        <v>500</v>
       </c>
       <c r="J65" t="s">
-        <v>556</v>
+        <v>501</v>
       </c>
       <c r="K65" t="s">
-        <v>557</v>
+        <v>502</v>
       </c>
       <c r="L65" t="s">
-        <v>558</v>
+        <v>503</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>559</v>
+        <v>504</v>
       </c>
       <c r="O65" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="P65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q65" t="n">
         <v>4</v>
       </c>
       <c r="R65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T65" t="s"/>
       <c r="U65" t="n">
@@ -6648,215 +6815,2367 @@
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
+      <c r="W65" t="s">
+        <v>505</v>
+      </c>
+      <c r="X65" t="s">
+        <v>506</v>
+      </c>
       <c r="Y65" t="s">
-        <v>558</v>
+        <v>507</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>27537</v>
       </c>
-      <c r="B66" t="n">
-        <v>34266</v>
-      </c>
-      <c r="C66" t="s">
-        <v>560</v>
-      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>561</v>
+        <v>508</v>
       </c>
       <c r="G66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>562</v>
+        <v>509</v>
       </c>
       <c r="J66" t="s">
-        <v>563</v>
+        <v>510</v>
       </c>
       <c r="K66" t="s">
-        <v>564</v>
+        <v>511</v>
       </c>
       <c r="L66" t="s">
-        <v>565</v>
+        <v>512</v>
       </c>
       <c r="M66" t="n">
-        <v>4</v>
-      </c>
-      <c r="N66" t="s">
-        <v>566</v>
-      </c>
-      <c r="O66" t="s">
-        <v>54</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
       <c r="P66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q66" t="n">
         <v>4</v>
       </c>
       <c r="R66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
+      <c r="W66" t="s">
+        <v>513</v>
+      </c>
+      <c r="X66" t="s">
+        <v>514</v>
+      </c>
       <c r="Y66" t="s">
-        <v>565</v>
+        <v>515</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>27537</v>
       </c>
-      <c r="B67" t="n">
-        <v>127599</v>
-      </c>
-      <c r="C67" t="s">
-        <v>567</v>
-      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>568</v>
+        <v>516</v>
       </c>
       <c r="G67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>569</v>
+        <v>517</v>
       </c>
       <c r="J67" t="s">
-        <v>570</v>
+        <v>518</v>
       </c>
       <c r="K67" t="s">
-        <v>571</v>
+        <v>79</v>
       </c>
       <c r="L67" t="s">
-        <v>572</v>
+        <v>519</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
-      <c r="N67" t="s"/>
-      <c r="O67" t="s"/>
+      <c r="N67" t="s">
+        <v>520</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
       <c r="P67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q67" t="n">
-        <v>3</v>
-      </c>
-      <c r="R67" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
       <c r="S67" t="n">
         <v>4</v>
       </c>
       <c r="T67" t="s"/>
       <c r="U67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
+      <c r="W67" t="s">
+        <v>521</v>
+      </c>
+      <c r="X67" t="s">
+        <v>522</v>
+      </c>
       <c r="Y67" t="s">
-        <v>573</v>
+        <v>523</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>27537</v>
       </c>
-      <c r="B68" t="n">
-        <v>127600</v>
-      </c>
-      <c r="C68" t="s">
-        <v>574</v>
-      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>575</v>
+        <v>524</v>
       </c>
       <c r="G68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>576</v>
+        <v>525</v>
       </c>
       <c r="J68" t="s">
-        <v>577</v>
+        <v>526</v>
       </c>
       <c r="K68" t="s">
-        <v>578</v>
+        <v>527</v>
       </c>
       <c r="L68" t="s">
-        <v>579</v>
+        <v>528</v>
       </c>
       <c r="M68" t="n">
-        <v>4</v>
-      </c>
-      <c r="N68" t="s">
-        <v>580</v>
-      </c>
-      <c r="O68" t="s">
-        <v>86</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
       <c r="P68" t="n">
         <v>3</v>
       </c>
       <c r="Q68" t="n">
         <v>4</v>
       </c>
-      <c r="R68" t="s"/>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
       <c r="S68" t="n">
         <v>5</v>
       </c>
       <c r="T68" t="s"/>
       <c r="U68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
       </c>
-      <c r="W68" t="s"/>
-      <c r="X68" t="s"/>
+      <c r="W68" t="s">
+        <v>529</v>
+      </c>
+      <c r="X68" t="s">
+        <v>530</v>
+      </c>
       <c r="Y68" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>27537</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>532</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>533</v>
+      </c>
+      <c r="J69" t="s">
+        <v>534</v>
+      </c>
+      <c r="K69" t="s">
+        <v>535</v>
+      </c>
+      <c r="L69" t="s">
+        <v>536</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>537</v>
+      </c>
+      <c r="O69" t="s">
+        <v>70</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>538</v>
+      </c>
+      <c r="X69" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>27537</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>541</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>542</v>
+      </c>
+      <c r="J70" t="s">
+        <v>543</v>
+      </c>
+      <c r="K70" t="s">
+        <v>544</v>
+      </c>
+      <c r="L70" t="s">
+        <v>545</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>537</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>546</v>
+      </c>
+      <c r="X70" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>27537</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>549</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>550</v>
+      </c>
+      <c r="J71" t="s">
+        <v>551</v>
+      </c>
+      <c r="K71" t="s">
+        <v>552</v>
+      </c>
+      <c r="L71" t="s">
+        <v>553</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>554</v>
+      </c>
+      <c r="O71" t="s">
+        <v>63</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>555</v>
+      </c>
+      <c r="X71" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>27537</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>558</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>559</v>
+      </c>
+      <c r="J72" t="s">
+        <v>560</v>
+      </c>
+      <c r="K72" t="s">
+        <v>561</v>
+      </c>
+      <c r="L72" t="s">
+        <v>562</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>563</v>
+      </c>
+      <c r="O72" t="s">
+        <v>70</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>564</v>
+      </c>
+      <c r="X72" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>27537</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>567</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>568</v>
+      </c>
+      <c r="J73" t="s">
+        <v>569</v>
+      </c>
+      <c r="K73" t="s">
+        <v>570</v>
+      </c>
+      <c r="L73" t="s">
+        <v>571</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>572</v>
+      </c>
+      <c r="O73" t="s">
+        <v>63</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>573</v>
+      </c>
+      <c r="X73" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>27537</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>576</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>577</v>
+      </c>
+      <c r="J74" t="s">
+        <v>578</v>
+      </c>
+      <c r="K74" t="s">
+        <v>579</v>
+      </c>
+      <c r="L74" t="s">
+        <v>580</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
         <v>581</v>
+      </c>
+      <c r="O74" t="s">
+        <v>582</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>573</v>
+      </c>
+      <c r="X74" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>27537</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>584</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>585</v>
+      </c>
+      <c r="J75" t="s">
+        <v>586</v>
+      </c>
+      <c r="K75" t="s">
+        <v>587</v>
+      </c>
+      <c r="L75" t="s">
+        <v>588</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>589</v>
+      </c>
+      <c r="O75" t="s">
+        <v>70</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>573</v>
+      </c>
+      <c r="X75" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>27537</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>591</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>592</v>
+      </c>
+      <c r="J76" t="s">
+        <v>593</v>
+      </c>
+      <c r="K76" t="s">
+        <v>594</v>
+      </c>
+      <c r="L76" t="s">
+        <v>595</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>589</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>27537</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>596</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>597</v>
+      </c>
+      <c r="J77" t="s">
+        <v>598</v>
+      </c>
+      <c r="K77" t="s">
+        <v>599</v>
+      </c>
+      <c r="L77" t="s">
+        <v>600</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>573</v>
+      </c>
+      <c r="X77" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>27537</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>602</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>603</v>
+      </c>
+      <c r="J78" t="s">
+        <v>604</v>
+      </c>
+      <c r="K78" t="s">
+        <v>605</v>
+      </c>
+      <c r="L78" t="s">
+        <v>606</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>607</v>
+      </c>
+      <c r="O78" t="s">
+        <v>63</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>573</v>
+      </c>
+      <c r="X78" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>27537</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>609</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>610</v>
+      </c>
+      <c r="J79" t="s">
+        <v>611</v>
+      </c>
+      <c r="K79" t="s">
+        <v>612</v>
+      </c>
+      <c r="L79" t="s">
+        <v>613</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>2</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>573</v>
+      </c>
+      <c r="X79" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>27537</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>615</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>616</v>
+      </c>
+      <c r="J80" t="s">
+        <v>617</v>
+      </c>
+      <c r="K80" t="s">
+        <v>618</v>
+      </c>
+      <c r="L80" t="s">
+        <v>619</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>620</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>573</v>
+      </c>
+      <c r="X80" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>27537</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>622</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>623</v>
+      </c>
+      <c r="J81" t="s">
+        <v>624</v>
+      </c>
+      <c r="K81" t="s">
+        <v>625</v>
+      </c>
+      <c r="L81" t="s">
+        <v>626</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>627</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>27537</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>628</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>629</v>
+      </c>
+      <c r="J82" t="s">
+        <v>630</v>
+      </c>
+      <c r="K82" t="s">
+        <v>631</v>
+      </c>
+      <c r="L82" t="s">
+        <v>632</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>633</v>
+      </c>
+      <c r="O82" t="s">
+        <v>63</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>2</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>27537</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>634</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>635</v>
+      </c>
+      <c r="J83" t="s">
+        <v>636</v>
+      </c>
+      <c r="K83" t="s">
+        <v>637</v>
+      </c>
+      <c r="L83" t="s">
+        <v>638</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>633</v>
+      </c>
+      <c r="O83" t="s">
+        <v>70</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>27537</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>639</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>640</v>
+      </c>
+      <c r="J84" t="s">
+        <v>641</v>
+      </c>
+      <c r="K84" t="s">
+        <v>642</v>
+      </c>
+      <c r="L84" t="s">
+        <v>643</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>644</v>
+      </c>
+      <c r="O84" t="s">
+        <v>63</v>
+      </c>
+      <c r="P84" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>27537</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>645</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>646</v>
+      </c>
+      <c r="J85" t="s">
+        <v>647</v>
+      </c>
+      <c r="K85" t="s">
+        <v>648</v>
+      </c>
+      <c r="L85" t="s">
+        <v>649</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>644</v>
+      </c>
+      <c r="O85" t="s">
+        <v>70</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>27537</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>650</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>651</v>
+      </c>
+      <c r="J86" t="s">
+        <v>652</v>
+      </c>
+      <c r="K86" t="s">
+        <v>653</v>
+      </c>
+      <c r="L86" t="s">
+        <v>654</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>27537</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>655</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>656</v>
+      </c>
+      <c r="J87" t="s">
+        <v>657</v>
+      </c>
+      <c r="K87" t="s">
+        <v>658</v>
+      </c>
+      <c r="L87" t="s">
+        <v>659</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>27537</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>660</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>661</v>
+      </c>
+      <c r="J88" t="s">
+        <v>662</v>
+      </c>
+      <c r="K88" t="s">
+        <v>663</v>
+      </c>
+      <c r="L88" t="s">
+        <v>664</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>665</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>27537</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>666</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>667</v>
+      </c>
+      <c r="J89" t="s">
+        <v>668</v>
+      </c>
+      <c r="K89" t="s">
+        <v>669</v>
+      </c>
+      <c r="L89" t="s">
+        <v>670</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>671</v>
+      </c>
+      <c r="O89" t="s">
+        <v>70</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>27537</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>673</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>674</v>
+      </c>
+      <c r="J90" t="s">
+        <v>675</v>
+      </c>
+      <c r="K90" t="s">
+        <v>676</v>
+      </c>
+      <c r="L90" t="s">
+        <v>677</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>678</v>
+      </c>
+      <c r="O90" t="s">
+        <v>70</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>27537</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>679</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>680</v>
+      </c>
+      <c r="J91" t="s">
+        <v>681</v>
+      </c>
+      <c r="K91" t="s">
+        <v>682</v>
+      </c>
+      <c r="L91" t="s">
+        <v>683</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>684</v>
+      </c>
+      <c r="O91" t="s">
+        <v>63</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>27537</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>686</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>687</v>
+      </c>
+      <c r="J92" t="s">
+        <v>688</v>
+      </c>
+      <c r="K92" t="s">
+        <v>689</v>
+      </c>
+      <c r="L92" t="s">
+        <v>690</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>691</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>2</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>2</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>27537</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>692</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>693</v>
+      </c>
+      <c r="J93" t="s">
+        <v>694</v>
+      </c>
+      <c r="K93" t="s">
+        <v>695</v>
+      </c>
+      <c r="L93" t="s">
+        <v>696</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>697</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>27537</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>698</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>699</v>
+      </c>
+      <c r="J94" t="s">
+        <v>700</v>
+      </c>
+      <c r="K94" t="s">
+        <v>701</v>
+      </c>
+      <c r="L94" t="s">
+        <v>702</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>703</v>
+      </c>
+      <c r="O94" t="s">
+        <v>582</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>27537</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>705</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>706</v>
+      </c>
+      <c r="J95" t="s">
+        <v>707</v>
+      </c>
+      <c r="K95" t="s">
+        <v>708</v>
+      </c>
+      <c r="L95" t="s">
+        <v>709</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="s">
+        <v>710</v>
+      </c>
+      <c r="O95" t="s">
+        <v>63</v>
+      </c>
+      <c r="P95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>27537</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>712</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>713</v>
+      </c>
+      <c r="J96" t="s">
+        <v>714</v>
+      </c>
+      <c r="K96" t="s">
+        <v>715</v>
+      </c>
+      <c r="L96" t="s">
+        <v>716</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>710</v>
+      </c>
+      <c r="O96" t="s">
+        <v>70</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>3</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>27537</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>718</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>719</v>
+      </c>
+      <c r="J97" t="s">
+        <v>720</v>
+      </c>
+      <c r="K97" t="s">
+        <v>721</v>
+      </c>
+      <c r="L97" t="s">
+        <v>722</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>723</v>
+      </c>
+      <c r="O97" t="s">
+        <v>163</v>
+      </c>
+      <c r="P97" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>3</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>27537</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>724</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>725</v>
+      </c>
+      <c r="J98" t="s">
+        <v>726</v>
+      </c>
+      <c r="K98" t="s">
+        <v>727</v>
+      </c>
+      <c r="L98" t="s">
+        <v>728</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>729</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>3</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>27537</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>730</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>731</v>
+      </c>
+      <c r="J99" t="s">
+        <v>732</v>
+      </c>
+      <c r="K99" t="s">
+        <v>733</v>
+      </c>
+      <c r="L99" t="s">
+        <v>734</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>3</v>
+      </c>
+      <c r="R99" t="s"/>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>27537</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>736</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>737</v>
+      </c>
+      <c r="J100" t="s">
+        <v>738</v>
+      </c>
+      <c r="K100" t="s">
+        <v>739</v>
+      </c>
+      <c r="L100" t="s">
+        <v>740</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>741</v>
+      </c>
+      <c r="O100" t="s">
+        <v>70</v>
+      </c>
+      <c r="P100" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="s"/>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>742</v>
       </c>
     </row>
   </sheetData>
